--- a/ConsoleApp2/bin/Debug/netcoreapp3.1/Data/FlextimeSheetForm20200601.xlsx
+++ b/ConsoleApp2/bin/Debug/netcoreapp3.1/Data/FlextimeSheetForm20200601.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nhatv\Work\VisualBasic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AKIYAMA\Work\ExcelDotNetCore\ConsoleApp2\bin\Debug\netcoreapp3.1\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7887800C-6EB9-466B-94F1-5FF3C354A6DD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DDE4D4-0AB6-44C3-BD70-3273AFC31CAE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_6月 " sheetId="31" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>タイムシート</t>
   </si>
@@ -125,33 +125,6 @@
     <t>　</t>
   </si>
   <si>
-    <t>10:00</t>
-  </si>
-  <si>
-    <t>08:30</t>
-  </si>
-  <si>
-    <t>09:00</t>
-  </si>
-  <si>
-    <t>09:30</t>
-  </si>
-  <si>
-    <t>08:00</t>
-  </si>
-  <si>
-    <t>09:40</t>
-  </si>
-  <si>
-    <t>09:45</t>
-  </si>
-  <si>
-    <t>09:15</t>
-  </si>
-  <si>
-    <t>08:45</t>
-  </si>
-  <si>
     <t xml:space="preserve">  </t>
   </si>
   <si>
@@ -167,21 +140,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="11">
-    <numFmt numFmtId="180" formatCode="d&quot;日&quot;"/>
-    <numFmt numFmtId="182" formatCode="[Red][=1]aaa;[Blue][=7]aaa;aaa"/>
-    <numFmt numFmtId="183" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="194" formatCode="#,##0.0;[Red]\-#,##0.0"/>
-    <numFmt numFmtId="195" formatCode="#,##0.0&quot; hr&quot;;[Red]\-#,##0.0"/>
-    <numFmt numFmtId="199" formatCode="&quot; x&quot;#,##0&quot;)&quot;;[Red]\-#,##0"/>
-    <numFmt numFmtId="201" formatCode="0.0"/>
-    <numFmt numFmtId="208" formatCode="yyyy&quot;年&quot;m&quot;月&quot;dd&quot;日&quot;"/>
-    <numFmt numFmtId="225" formatCode="hh:mm;@"/>
-    <numFmt numFmtId="226" formatCode="[h]:mm"/>
-    <numFmt numFmtId="229" formatCode="[h]:mm;[Red]\-[h]:mm"/>
+    <numFmt numFmtId="164" formatCode="d&quot;日&quot;"/>
+    <numFmt numFmtId="165" formatCode="[Red][=1]aaa;[Blue][=7]aaa;aaa"/>
+    <numFmt numFmtId="166" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0;[Red]\-#,##0.0"/>
+    <numFmt numFmtId="168" formatCode="#,##0.0&quot; hr&quot;;[Red]\-#,##0.0"/>
+    <numFmt numFmtId="169" formatCode="&quot; x&quot;#,##0&quot;)&quot;;[Red]\-#,##0"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="171" formatCode="yyyy&quot;年&quot;m&quot;月&quot;dd&quot;日&quot;"/>
+    <numFmt numFmtId="172" formatCode="hh:mm;@"/>
+    <numFmt numFmtId="173" formatCode="[h]:mm"/>
+    <numFmt numFmtId="174" formatCode="[h]:mm;[Red]\-[h]:mm"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -271,21 +244,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -301,7 +259,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -559,34 +517,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -596,7 +526,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="80">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -639,22 +569,22 @@
     <xf numFmtId="49" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="194" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="167" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
@@ -684,11 +614,11 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="201" applyNumberFormat="1" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="170" applyNumberFormat="1" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="199" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="169" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
@@ -709,13 +639,13 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="195" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="168" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
@@ -733,23 +663,47 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="225" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="172" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="225" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="12" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="172" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="12" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="225" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="12" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="172" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="12" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="13" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="171" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="16" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" applyNumberFormat="1" fontId="4" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" applyNumberFormat="1" fontId="4" applyFont="1" fillId="2" applyFill="1" borderId="17" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="18" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="19" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -760,39 +714,15 @@
     <xf numFmtId="20" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="12" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="38" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="12" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="226" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="174" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="15" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="226" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="174" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="12" applyBorder="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="226" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="20" applyBorder="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="229" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="229" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="12" applyBorder="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="226" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="173" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
@@ -801,29 +731,29 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="18" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="12" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="173" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="19" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="15" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="173" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="20" applyBorder="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="208" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="16" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="208" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="208" applyNumberFormat="1" fontId="4" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="208" applyNumberFormat="1" fontId="4" applyFont="1" fillId="2" applyFill="1" borderId="17" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="20" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -834,9 +764,6 @@
     <xf numFmtId="20" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="20" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="20" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="18" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -844,24 +771,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="18" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="208" applyNumberFormat="1" fontId="15" applyFont="1" fillId="0" applyFill="1" borderId="21" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="22" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -966,8 +875,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4602480" y="38100"/>
-          <a:ext cx="1798320" cy="792480"/>
+          <a:off x="5093970" y="38100"/>
+          <a:ext cx="2021205" cy="802005"/>
           <a:chOff x="617" y="29"/>
           <a:chExt cx="155" cy="74"/>
         </a:xfrm>
@@ -1232,8 +1141,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4602480" y="38100"/>
-          <a:ext cx="1798320" cy="792480"/>
+          <a:off x="5093970" y="38100"/>
+          <a:ext cx="2021205" cy="802005"/>
           <a:chOff x="617" y="29"/>
           <a:chExt cx="155" cy="74"/>
         </a:xfrm>
@@ -2000,41 +1909,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac xr">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V966"/>
+  <dimension ref="A1:T966"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="U1" sqref="U1:W1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="0.77734375" customWidth="1" style="5"/>
+    <col min="1" max="1" width="0.75" customWidth="1" style="5"/>
     <col min="2" max="2" width="7" customWidth="1" style="5"/>
-    <col min="3" max="3" width="6.33203125" customWidth="1" style="3"/>
-    <col min="4" max="4" width="5.21875" customWidth="1" style="4"/>
-    <col min="5" max="5" width="5.44140625" customWidth="1" style="4"/>
-    <col min="6" max="6" width="1.77734375" customWidth="1" style="4"/>
-    <col min="7" max="7" width="4.88671875" customWidth="1" style="4"/>
-    <col min="8" max="8" width="3.88671875" customWidth="1" style="4"/>
-    <col min="9" max="9" width="3.33203125" customWidth="1" style="4"/>
-    <col min="10" max="10" width="3.88671875" customWidth="1" style="4"/>
-    <col min="11" max="11" width="3.33203125" customWidth="1" style="4"/>
-    <col min="12" max="12" width="2.77734375" customWidth="1" style="4"/>
-    <col min="13" max="13" width="3.88671875" customWidth="1" style="5"/>
-    <col min="14" max="14" width="6.33203125" customWidth="1" style="4"/>
-    <col min="15" max="15" width="4.77734375" customWidth="1" style="4"/>
-    <col min="16" max="16" width="10.77734375" customWidth="1" style="4"/>
-    <col min="17" max="17" width="10.77734375" customWidth="1" style="4"/>
-    <col min="18" max="18" width="8.109375" customWidth="1" style="5"/>
-    <col min="19" max="19" width="2.6640625" customWidth="1" style="5"/>
-    <col min="20" max="20" bestFit="1" width="6.33203125" customWidth="1" style="5"/>
-    <col min="21" max="21" bestFit="1" width="5.21875" customWidth="1" style="5"/>
-    <col min="22" max="22" width="6.21875" customWidth="1" style="5"/>
-    <col min="23" max="16384" width="9" customWidth="1" style="5"/>
+    <col min="3" max="3" width="6.375" customWidth="1" style="3"/>
+    <col min="4" max="4" width="5.25" customWidth="1" style="4"/>
+    <col min="5" max="5" width="5.5" customWidth="1" style="4"/>
+    <col min="6" max="6" width="1.75" customWidth="1" style="4"/>
+    <col min="7" max="7" width="4.875" customWidth="1" style="4"/>
+    <col min="8" max="8" width="3.875" customWidth="1" style="4"/>
+    <col min="9" max="9" width="3.375" customWidth="1" style="4"/>
+    <col min="10" max="10" width="3.875" customWidth="1" style="4"/>
+    <col min="11" max="11" width="3.375" customWidth="1" style="4"/>
+    <col min="12" max="12" width="2.75" customWidth="1" style="4"/>
+    <col min="13" max="13" width="3.875" customWidth="1" style="5"/>
+    <col min="14" max="14" width="6.375" customWidth="1" style="4"/>
+    <col min="15" max="15" width="4.75" customWidth="1" style="4"/>
+    <col min="16" max="16" width="10.75" customWidth="1" style="4"/>
+    <col min="17" max="17" width="10.75" customWidth="1" style="4"/>
+    <col min="18" max="18" width="8.125" customWidth="1" style="5"/>
+    <col min="19" max="19" width="2.625" customWidth="1" style="5"/>
+    <col min="20" max="20" bestFit="1" width="6.375" customWidth="1" style="5"/>
+    <col min="21" max="24" width="9" customWidth="1" style="5"/>
+    <col min="25" max="16384" width="9" customWidth="1" style="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1">
@@ -2046,21 +1954,21 @@
       <c r="C2" s="5"/>
     </row>
     <row r="3" ht="21.75" customHeight="1">
-      <c r="B3" s="69">
+      <c r="B3" s="51">
         <v>43983</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
       <c r="F3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="71">
+      <c r="G3" s="53">
         <v>44012</v>
       </c>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="72"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="54"/>
       <c r="M3" s="4"/>
       <c r="N3" s="5"/>
       <c r="R3" s="4"/>
@@ -2070,13 +1978,13 @@
       <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
     </row>
     <row r="6" ht="3" customHeight="1">
       <c r="D6" s="8"/>
@@ -2103,26 +2011,26 @@
       <c r="C7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="66" t="s">
+      <c r="D7" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="67"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="66" t="s">
+      <c r="E7" s="57"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="67"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="66" t="s">
+      <c r="H7" s="57"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="67"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="66" t="s">
+      <c r="K7" s="57"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="67"/>
-      <c r="O7" s="68"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="58"/>
       <c r="P7" s="35" t="s">
         <v>9</v>
       </c>
@@ -2143,34 +2051,32 @@
         <f ref="C8:C37" t="shared" si="0">WEEKDAY(B8)</f>
         <v>2</v>
       </c>
-      <c r="D8" s="51">
+      <c r="D8" s="59">
         <v>0</v>
       </c>
-      <c r="E8" s="52"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="51">
+      <c r="E8" s="60"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="59">
         <v>0</v>
       </c>
-      <c r="H8" s="52"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="51">
+      <c r="H8" s="60"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="59">
         <v>0</v>
       </c>
-      <c r="K8" s="52"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="51">
+      <c r="K8" s="60"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="59">
         <f>G8-D8-J8</f>
         <v>0</v>
       </c>
-      <c r="N8" s="52"/>
-      <c r="O8" s="53"/>
+      <c r="N8" s="60"/>
+      <c r="O8" s="61"/>
       <c r="P8" s="47"/>
       <c r="Q8" s="47"/>
       <c r="R8" s="41"/>
       <c r="S8" s="16"/>
       <c r="T8" s="17"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
     </row>
     <row r="9" ht="21.75" customHeight="1">
       <c r="B9" s="19">
@@ -2181,33 +2087,32 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D9" s="51">
+      <c r="D9" s="59">
         <v>0</v>
       </c>
-      <c r="E9" s="52"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="51">
+      <c r="E9" s="60"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="59">
         <v>0</v>
       </c>
-      <c r="H9" s="52"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="51">
+      <c r="H9" s="60"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="59">
         <v>0</v>
       </c>
-      <c r="K9" s="52"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="51">
+      <c r="K9" s="60"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="59">
         <f>G9-D9-J9</f>
         <v>0</v>
       </c>
-      <c r="N9" s="52"/>
-      <c r="O9" s="53"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="61"/>
       <c r="P9" s="47"/>
       <c r="Q9" s="47"/>
       <c r="R9" s="20"/>
       <c r="S9" s="16"/>
       <c r="T9" s="17"/>
-      <c r="U9" s="18"/>
     </row>
     <row r="10" ht="21.75" customHeight="1">
       <c r="B10" s="19">
@@ -2218,33 +2123,32 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D10" s="51">
+      <c r="D10" s="59">
         <v>0</v>
       </c>
-      <c r="E10" s="52"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="51">
+      <c r="E10" s="60"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="59">
         <v>0</v>
       </c>
-      <c r="H10" s="52"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="51">
+      <c r="H10" s="60"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="59">
         <v>0</v>
       </c>
-      <c r="K10" s="52"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="51">
+      <c r="K10" s="60"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="59">
         <f>G10-D10-J10</f>
         <v>0</v>
       </c>
-      <c r="N10" s="52"/>
-      <c r="O10" s="53"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="61"/>
       <c r="P10" s="47"/>
       <c r="Q10" s="47"/>
       <c r="R10" s="42"/>
       <c r="S10" s="16"/>
       <c r="T10" s="17"/>
-      <c r="U10" s="18"/>
     </row>
     <row r="11" ht="21.75" customHeight="1">
       <c r="B11" s="19">
@@ -2255,27 +2159,27 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D11" s="51">
+      <c r="D11" s="59">
         <v>0</v>
       </c>
-      <c r="E11" s="52"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="51">
+      <c r="E11" s="60"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="59">
         <v>0</v>
       </c>
-      <c r="H11" s="52"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="51">
+      <c r="H11" s="60"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="59">
         <v>0</v>
       </c>
-      <c r="K11" s="52"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="51">
+      <c r="K11" s="60"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="59">
         <f>G11-D11-J11</f>
         <v>0</v>
       </c>
-      <c r="N11" s="52"/>
-      <c r="O11" s="53"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="61"/>
       <c r="P11" s="48" t="s">
         <v>12</v>
       </c>
@@ -2285,7 +2189,6 @@
       <c r="R11" s="20"/>
       <c r="S11" s="16"/>
       <c r="T11" s="17"/>
-      <c r="U11" s="18"/>
     </row>
     <row r="12" ht="21.75" customHeight="1">
       <c r="B12" s="19">
@@ -2296,33 +2199,32 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D12" s="51">
+      <c r="D12" s="59">
         <v>0</v>
       </c>
-      <c r="E12" s="52"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="51">
+      <c r="E12" s="60"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="59">
         <v>0</v>
       </c>
-      <c r="H12" s="52"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="51">
+      <c r="H12" s="60"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="59">
         <v>0</v>
       </c>
-      <c r="K12" s="52"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="51">
+      <c r="K12" s="60"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="59">
         <f>G12-D12-J12</f>
         <v>0</v>
       </c>
-      <c r="N12" s="52"/>
-      <c r="O12" s="53"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="61"/>
       <c r="P12" s="48"/>
       <c r="Q12" s="48"/>
       <c r="R12" s="21"/>
       <c r="S12" s="22"/>
       <c r="T12" s="17"/>
-      <c r="U12" s="18"/>
     </row>
     <row r="13" ht="21.75" customHeight="1">
       <c r="B13" s="19">
@@ -2333,32 +2235,31 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="52"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="51" t="s">
+      <c r="E13" s="60"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="52"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="51" t="s">
+      <c r="H13" s="60"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="K13" s="52"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="51" t="s">
+      <c r="K13" s="60"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="N13" s="52"/>
-      <c r="O13" s="53"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="61"/>
       <c r="P13" s="48"/>
       <c r="Q13" s="48"/>
       <c r="R13" s="20"/>
       <c r="S13" s="16"/>
       <c r="T13" s="17"/>
-      <c r="U13" s="18"/>
     </row>
     <row r="14" ht="21.75" customHeight="1">
       <c r="B14" s="19">
@@ -2369,32 +2270,31 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D14" s="51" t="s">
+      <c r="D14" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="52"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="51" t="s">
+      <c r="E14" s="60"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="52"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="51" t="s">
+      <c r="H14" s="60"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="52"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="51" t="s">
+      <c r="K14" s="60"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="N14" s="52"/>
-      <c r="O14" s="53"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="61"/>
       <c r="P14" s="48"/>
       <c r="Q14" s="48"/>
       <c r="R14" s="20"/>
       <c r="S14" s="16"/>
       <c r="T14" s="17"/>
-      <c r="U14" s="18"/>
     </row>
     <row r="15" ht="21.75" customHeight="1">
       <c r="B15" s="19">
@@ -2405,33 +2305,32 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D15" s="51">
+      <c r="D15" s="59">
         <v>0</v>
       </c>
-      <c r="E15" s="52"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="51">
+      <c r="E15" s="60"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="59">
         <v>0</v>
       </c>
-      <c r="H15" s="52"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="51">
+      <c r="H15" s="60"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="59">
         <v>0</v>
       </c>
-      <c r="K15" s="52"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="51">
+      <c r="K15" s="60"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="59">
         <f>G15-D15-J15</f>
         <v>0</v>
       </c>
-      <c r="N15" s="52"/>
-      <c r="O15" s="53"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="61"/>
       <c r="P15" s="48"/>
       <c r="Q15" s="48"/>
       <c r="R15" s="20"/>
       <c r="S15" s="16"/>
       <c r="T15" s="17"/>
-      <c r="U15" s="18"/>
     </row>
     <row r="16" ht="21.75" customHeight="1">
       <c r="B16" s="19">
@@ -2442,33 +2341,32 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D16" s="51">
+      <c r="D16" s="59">
         <v>0</v>
       </c>
-      <c r="E16" s="52"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="51">
+      <c r="E16" s="60"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="59">
         <v>0</v>
       </c>
-      <c r="H16" s="52"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="51">
+      <c r="H16" s="60"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="59">
         <v>0</v>
       </c>
-      <c r="K16" s="52"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="51">
+      <c r="K16" s="60"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="59">
         <f>G16-D16-J16</f>
         <v>0</v>
       </c>
-      <c r="N16" s="52"/>
-      <c r="O16" s="53"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="61"/>
       <c r="P16" s="48"/>
       <c r="Q16" s="48"/>
       <c r="R16" s="20"/>
       <c r="S16" s="16"/>
       <c r="T16" s="17"/>
-      <c r="U16" s="18"/>
     </row>
     <row r="17" ht="21.75" customHeight="1">
       <c r="B17" s="19">
@@ -2479,27 +2377,27 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D17" s="51">
+      <c r="D17" s="59">
         <v>0</v>
       </c>
-      <c r="E17" s="52"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="51">
+      <c r="E17" s="60"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="59">
         <v>0</v>
       </c>
-      <c r="H17" s="52"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="51">
+      <c r="H17" s="60"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="59">
         <v>0</v>
       </c>
-      <c r="K17" s="52"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="51">
+      <c r="K17" s="60"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="59">
         <f>G17-D17-J17</f>
         <v>0</v>
       </c>
-      <c r="N17" s="52"/>
-      <c r="O17" s="53"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="61"/>
       <c r="P17" s="48" t="s">
         <v>12</v>
       </c>
@@ -2507,7 +2405,6 @@
       <c r="R17" s="20"/>
       <c r="S17" s="16"/>
       <c r="T17" s="17"/>
-      <c r="U17" s="18"/>
     </row>
     <row r="18" ht="21.75" customHeight="1">
       <c r="B18" s="19">
@@ -2518,27 +2415,27 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D18" s="51">
+      <c r="D18" s="59">
         <v>0</v>
       </c>
-      <c r="E18" s="52"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="51">
+      <c r="E18" s="60"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="59">
         <v>0</v>
       </c>
-      <c r="H18" s="52"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="51">
+      <c r="H18" s="60"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="59">
         <v>0</v>
       </c>
-      <c r="K18" s="52"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="51">
+      <c r="K18" s="60"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="59">
         <f>G18-D18-J18</f>
         <v>0</v>
       </c>
-      <c r="N18" s="52"/>
-      <c r="O18" s="53"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="61"/>
       <c r="P18" s="48" t="s">
         <v>12</v>
       </c>
@@ -2546,7 +2443,6 @@
       <c r="R18" s="38"/>
       <c r="S18" s="16"/>
       <c r="T18" s="17"/>
-      <c r="U18" s="18"/>
     </row>
     <row r="19" ht="21.75" customHeight="1">
       <c r="B19" s="19">
@@ -2557,27 +2453,27 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D19" s="51">
+      <c r="D19" s="59">
         <v>0</v>
       </c>
-      <c r="E19" s="52"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="51">
+      <c r="E19" s="60"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="59">
         <v>0</v>
       </c>
-      <c r="H19" s="52"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="51">
+      <c r="H19" s="60"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="59">
         <v>0</v>
       </c>
-      <c r="K19" s="52"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="51">
+      <c r="K19" s="60"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="59">
         <f>G19-D19-J19</f>
         <v>0</v>
       </c>
-      <c r="N19" s="52"/>
-      <c r="O19" s="53"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="61"/>
       <c r="P19" s="48" t="s">
         <v>12</v>
       </c>
@@ -2587,7 +2483,6 @@
       <c r="R19" s="38"/>
       <c r="S19" s="16"/>
       <c r="T19" s="17"/>
-      <c r="U19" s="18"/>
     </row>
     <row r="20" ht="21.75" customHeight="1">
       <c r="B20" s="19">
@@ -2598,32 +2493,31 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D20" s="51" t="s">
+      <c r="D20" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="52"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="51" t="s">
+      <c r="E20" s="60"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="H20" s="52"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="51" t="s">
+      <c r="H20" s="60"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="K20" s="52"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="51" t="s">
+      <c r="K20" s="60"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="N20" s="52"/>
-      <c r="O20" s="53"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="61"/>
       <c r="P20" s="48"/>
       <c r="Q20" s="48"/>
       <c r="R20" s="38"/>
       <c r="S20" s="16"/>
       <c r="T20" s="17"/>
-      <c r="U20" s="18"/>
     </row>
     <row r="21" ht="21.75" customHeight="1">
       <c r="B21" s="19">
@@ -2634,26 +2528,26 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D21" s="51" t="s">
+      <c r="D21" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="52"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="51" t="s">
+      <c r="E21" s="60"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="52"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="51" t="s">
+      <c r="H21" s="60"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="K21" s="52"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="51" t="s">
+      <c r="K21" s="60"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="N21" s="52"/>
-      <c r="O21" s="53"/>
+      <c r="N21" s="60"/>
+      <c r="O21" s="61"/>
       <c r="P21" s="48"/>
       <c r="Q21" s="48"/>
       <c r="R21" s="38" t="s">
@@ -2661,7 +2555,6 @@
       </c>
       <c r="S21" s="16"/>
       <c r="T21" s="17"/>
-      <c r="U21" s="18"/>
     </row>
     <row r="22" ht="21.75" customHeight="1">
       <c r="B22" s="19">
@@ -2672,33 +2565,32 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D22" s="51">
+      <c r="D22" s="59">
         <v>0</v>
       </c>
-      <c r="E22" s="52"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="51">
+      <c r="E22" s="60"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="59">
         <v>0</v>
       </c>
-      <c r="H22" s="52"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="51">
+      <c r="H22" s="60"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="59">
         <v>0</v>
       </c>
-      <c r="K22" s="52"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="51">
+      <c r="K22" s="60"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="59">
         <f>G22-D22-J22</f>
         <v>0</v>
       </c>
-      <c r="N22" s="52"/>
-      <c r="O22" s="53"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="61"/>
       <c r="P22" s="48"/>
       <c r="Q22" s="48"/>
       <c r="R22" s="20"/>
       <c r="S22" s="16"/>
       <c r="T22" s="17"/>
-      <c r="U22" s="18"/>
     </row>
     <row r="23" ht="21.75" customHeight="1">
       <c r="B23" s="19">
@@ -2709,33 +2601,32 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D23" s="51">
+      <c r="D23" s="59">
         <v>0</v>
       </c>
-      <c r="E23" s="52"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="51">
+      <c r="E23" s="60"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="59">
         <v>0</v>
       </c>
-      <c r="H23" s="52"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="51">
+      <c r="H23" s="60"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="59">
         <v>0</v>
       </c>
-      <c r="K23" s="52"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="51">
+      <c r="K23" s="60"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="59">
         <f>G23-D23-J23</f>
         <v>0</v>
       </c>
-      <c r="N23" s="52"/>
-      <c r="O23" s="53"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="61"/>
       <c r="P23" s="48"/>
       <c r="Q23" s="48"/>
       <c r="R23" s="20"/>
       <c r="S23" s="16"/>
       <c r="T23" s="17"/>
-      <c r="U23" s="18"/>
     </row>
     <row r="24" ht="21.75" customHeight="1">
       <c r="B24" s="19">
@@ -2746,33 +2637,32 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D24" s="51">
+      <c r="D24" s="59">
         <v>0</v>
       </c>
-      <c r="E24" s="52"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="51">
+      <c r="E24" s="60"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="59">
         <v>0</v>
       </c>
-      <c r="H24" s="52"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="51">
+      <c r="H24" s="60"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="59">
         <v>0</v>
       </c>
-      <c r="K24" s="52"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="51">
+      <c r="K24" s="60"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="59">
         <f>G24-D24-J24</f>
         <v>0</v>
       </c>
-      <c r="N24" s="52"/>
-      <c r="O24" s="53"/>
+      <c r="N24" s="60"/>
+      <c r="O24" s="61"/>
       <c r="P24" s="48"/>
       <c r="Q24" s="48"/>
       <c r="R24" s="20"/>
       <c r="S24" s="16"/>
       <c r="T24" s="17"/>
-      <c r="U24" s="18"/>
     </row>
     <row r="25" ht="21.75" customHeight="1">
       <c r="B25" s="19">
@@ -2783,27 +2673,27 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D25" s="51">
+      <c r="D25" s="59">
         <v>0</v>
       </c>
-      <c r="E25" s="52"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="51">
+      <c r="E25" s="60"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="59">
         <v>0</v>
       </c>
-      <c r="H25" s="52"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="51">
+      <c r="H25" s="60"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="59">
         <v>0</v>
       </c>
-      <c r="K25" s="52"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="51">
+      <c r="K25" s="60"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="59">
         <f>G25-D25-J25</f>
         <v>0</v>
       </c>
-      <c r="N25" s="52"/>
-      <c r="O25" s="53"/>
+      <c r="N25" s="60"/>
+      <c r="O25" s="61"/>
       <c r="P25" s="48" t="s">
         <v>12</v>
       </c>
@@ -2811,7 +2701,6 @@
       <c r="R25" s="20"/>
       <c r="S25" s="16"/>
       <c r="T25" s="17"/>
-      <c r="U25" s="18"/>
     </row>
     <row r="26" ht="21.75" customHeight="1">
       <c r="B26" s="19">
@@ -2822,27 +2711,27 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D26" s="51">
+      <c r="D26" s="59">
         <v>0</v>
       </c>
-      <c r="E26" s="52"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="51">
+      <c r="E26" s="60"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="59">
         <v>0</v>
       </c>
-      <c r="H26" s="52"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="51">
+      <c r="H26" s="60"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="59">
         <v>0</v>
       </c>
-      <c r="K26" s="52"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="51">
+      <c r="K26" s="60"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="59">
         <f>G26-D26-J26</f>
         <v>0</v>
       </c>
-      <c r="N26" s="52"/>
-      <c r="O26" s="53"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="61"/>
       <c r="P26" s="48" t="s">
         <v>12</v>
       </c>
@@ -2850,7 +2739,6 @@
       <c r="R26" s="20"/>
       <c r="S26" s="16"/>
       <c r="T26" s="17"/>
-      <c r="U26" s="18"/>
     </row>
     <row r="27" ht="21.75" customHeight="1">
       <c r="B27" s="19">
@@ -2861,26 +2749,26 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D27" s="51" t="s">
+      <c r="D27" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="52"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="51" t="s">
+      <c r="E27" s="60"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="H27" s="52"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="51" t="s">
+      <c r="H27" s="60"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="K27" s="52"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="51" t="s">
+      <c r="K27" s="60"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="N27" s="52"/>
-      <c r="O27" s="53"/>
+      <c r="N27" s="60"/>
+      <c r="O27" s="61"/>
       <c r="P27" s="48" t="s">
         <v>12</v>
       </c>
@@ -2888,7 +2776,6 @@
       <c r="R27" s="20"/>
       <c r="S27" s="16"/>
       <c r="T27" s="17"/>
-      <c r="U27" s="18"/>
     </row>
     <row r="28" ht="21.75" customHeight="1">
       <c r="B28" s="19">
@@ -2899,32 +2786,31 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D28" s="51" t="s">
+      <c r="D28" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="52"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="51" t="s">
+      <c r="E28" s="60"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="52"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="51" t="s">
+      <c r="H28" s="60"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="K28" s="52"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="51" t="s">
+      <c r="K28" s="60"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="N28" s="52"/>
-      <c r="O28" s="53"/>
+      <c r="N28" s="60"/>
+      <c r="O28" s="61"/>
       <c r="P28" s="48"/>
       <c r="Q28" s="48"/>
       <c r="R28" s="20"/>
       <c r="S28" s="16"/>
       <c r="T28" s="17"/>
-      <c r="U28" s="18"/>
     </row>
     <row r="29" ht="21.75" customHeight="1">
       <c r="B29" s="19">
@@ -2935,27 +2821,27 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D29" s="51">
+      <c r="D29" s="59">
         <v>0</v>
       </c>
-      <c r="E29" s="52"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="51">
+      <c r="E29" s="60"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="59">
         <v>0</v>
       </c>
-      <c r="H29" s="52"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="51">
+      <c r="H29" s="60"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="59">
         <v>0</v>
       </c>
-      <c r="K29" s="52"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="51">
+      <c r="K29" s="60"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="59">
         <f>G29-D29-J29</f>
         <v>0</v>
       </c>
-      <c r="N29" s="52"/>
-      <c r="O29" s="53"/>
+      <c r="N29" s="60"/>
+      <c r="O29" s="61"/>
       <c r="P29" s="48" t="s">
         <v>12</v>
       </c>
@@ -2963,7 +2849,6 @@
       <c r="R29" s="20"/>
       <c r="S29" s="16"/>
       <c r="T29" s="17"/>
-      <c r="U29" s="18"/>
     </row>
     <row r="30" ht="21.75" customHeight="1">
       <c r="B30" s="19">
@@ -2974,27 +2859,27 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D30" s="51">
+      <c r="D30" s="59">
         <v>0</v>
       </c>
-      <c r="E30" s="52"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="51">
+      <c r="E30" s="60"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="59">
         <v>0</v>
       </c>
-      <c r="H30" s="52"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="51">
+      <c r="H30" s="60"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="59">
         <v>0</v>
       </c>
-      <c r="K30" s="52"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="51">
+      <c r="K30" s="60"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="59">
         <f>G30-D30-J30</f>
         <v>0</v>
       </c>
-      <c r="N30" s="52"/>
-      <c r="O30" s="53"/>
+      <c r="N30" s="60"/>
+      <c r="O30" s="61"/>
       <c r="P30" s="48" t="s">
         <v>12</v>
       </c>
@@ -3002,7 +2887,6 @@
       <c r="R30" s="20"/>
       <c r="S30" s="16"/>
       <c r="T30" s="17"/>
-      <c r="U30" s="18"/>
     </row>
     <row r="31" ht="21.75" customHeight="1">
       <c r="B31" s="19">
@@ -3013,33 +2897,32 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D31" s="51">
+      <c r="D31" s="59">
         <v>0</v>
       </c>
-      <c r="E31" s="52"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="51">
+      <c r="E31" s="60"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="59">
         <v>0</v>
       </c>
-      <c r="H31" s="52"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="51">
+      <c r="H31" s="60"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="59">
         <v>0</v>
       </c>
-      <c r="K31" s="52"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="51">
+      <c r="K31" s="60"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="59">
         <f>G31-D31-J31</f>
         <v>0</v>
       </c>
-      <c r="N31" s="52"/>
-      <c r="O31" s="53"/>
+      <c r="N31" s="60"/>
+      <c r="O31" s="61"/>
       <c r="P31" s="48"/>
       <c r="Q31" s="48"/>
       <c r="R31" s="20"/>
       <c r="S31" s="16"/>
       <c r="T31" s="17"/>
-      <c r="U31" s="18"/>
     </row>
     <row r="32" ht="21.75" customHeight="1">
       <c r="B32" s="19">
@@ -3050,27 +2933,27 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D32" s="51">
+      <c r="D32" s="59">
         <v>0</v>
       </c>
-      <c r="E32" s="52"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="51">
+      <c r="E32" s="60"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="59">
         <v>0</v>
       </c>
-      <c r="H32" s="52"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="51">
+      <c r="H32" s="60"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="59">
         <v>0</v>
       </c>
-      <c r="K32" s="52"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="51">
+      <c r="K32" s="60"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="59">
         <f>G32-D32-J32</f>
         <v>0</v>
       </c>
-      <c r="N32" s="52"/>
-      <c r="O32" s="53"/>
+      <c r="N32" s="60"/>
+      <c r="O32" s="61"/>
       <c r="P32" s="48" t="s">
         <v>12</v>
       </c>
@@ -3078,7 +2961,6 @@
       <c r="R32" s="20"/>
       <c r="S32" s="16"/>
       <c r="T32" s="17"/>
-      <c r="U32" s="18"/>
     </row>
     <row r="33" ht="21.75" customHeight="1">
       <c r="B33" s="19">
@@ -3089,27 +2971,27 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D33" s="51">
+      <c r="D33" s="59">
         <v>0</v>
       </c>
-      <c r="E33" s="52"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="51">
+      <c r="E33" s="60"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="59">
         <v>0</v>
       </c>
-      <c r="H33" s="52"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="51">
+      <c r="H33" s="60"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="59">
         <v>0</v>
       </c>
-      <c r="K33" s="52"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="51">
+      <c r="K33" s="60"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="59">
         <f>G33-D33-J33</f>
         <v>0</v>
       </c>
-      <c r="N33" s="52"/>
-      <c r="O33" s="53"/>
+      <c r="N33" s="60"/>
+      <c r="O33" s="61"/>
       <c r="P33" s="48" t="s">
         <v>12</v>
       </c>
@@ -3117,7 +2999,6 @@
       <c r="R33" s="20"/>
       <c r="S33" s="16"/>
       <c r="T33" s="17"/>
-      <c r="U33" s="18"/>
     </row>
     <row r="34" ht="21.75" customHeight="1">
       <c r="B34" s="19">
@@ -3128,26 +3009,26 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D34" s="51" t="s">
+      <c r="D34" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="52"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="51" t="s">
+      <c r="E34" s="60"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="H34" s="52"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="51" t="s">
+      <c r="H34" s="60"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="K34" s="52"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="51" t="s">
+      <c r="K34" s="60"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="N34" s="52"/>
-      <c r="O34" s="53"/>
+      <c r="N34" s="60"/>
+      <c r="O34" s="61"/>
       <c r="P34" s="48" t="s">
         <v>12</v>
       </c>
@@ -3157,7 +3038,6 @@
       </c>
       <c r="S34" s="16"/>
       <c r="T34" s="17"/>
-      <c r="U34" s="18"/>
     </row>
     <row r="35" ht="21.75" customHeight="1">
       <c r="B35" s="19">
@@ -3168,26 +3048,26 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D35" s="51" t="s">
+      <c r="D35" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="52"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="51" t="s">
+      <c r="E35" s="60"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="H35" s="52"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="51" t="s">
+      <c r="H35" s="60"/>
+      <c r="I35" s="61"/>
+      <c r="J35" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="K35" s="52"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="51" t="s">
+      <c r="K35" s="60"/>
+      <c r="L35" s="61"/>
+      <c r="M35" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="N35" s="52"/>
-      <c r="O35" s="53"/>
+      <c r="N35" s="60"/>
+      <c r="O35" s="61"/>
       <c r="P35" s="48"/>
       <c r="Q35" s="48"/>
       <c r="R35" s="38" t="s">
@@ -3195,7 +3075,6 @@
       </c>
       <c r="S35" s="16"/>
       <c r="T35" s="17"/>
-      <c r="U35" s="18"/>
     </row>
     <row r="36" ht="21.75" customHeight="1">
       <c r="B36" s="19">
@@ -3206,27 +3085,27 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D36" s="51">
+      <c r="D36" s="59">
         <v>0</v>
       </c>
-      <c r="E36" s="52"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="51">
+      <c r="E36" s="60"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="59">
         <v>0</v>
       </c>
-      <c r="H36" s="52"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="51">
+      <c r="H36" s="60"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="59">
         <v>0</v>
       </c>
-      <c r="K36" s="52"/>
-      <c r="L36" s="53"/>
-      <c r="M36" s="51">
+      <c r="K36" s="60"/>
+      <c r="L36" s="61"/>
+      <c r="M36" s="59">
         <f>G36-D36-J36</f>
         <v>0</v>
       </c>
-      <c r="N36" s="52"/>
-      <c r="O36" s="53"/>
+      <c r="N36" s="60"/>
+      <c r="O36" s="61"/>
       <c r="P36" s="48" t="s">
         <v>12</v>
       </c>
@@ -3236,7 +3115,6 @@
       </c>
       <c r="S36" s="16"/>
       <c r="T36" s="17"/>
-      <c r="U36" s="18"/>
     </row>
     <row r="37" ht="21.75" customHeight="1">
       <c r="B37" s="19">
@@ -3247,27 +3125,27 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D37" s="51">
+      <c r="D37" s="59">
         <v>0</v>
       </c>
-      <c r="E37" s="52"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="51">
+      <c r="E37" s="60"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="59">
         <v>0</v>
       </c>
-      <c r="H37" s="52"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="51">
+      <c r="H37" s="60"/>
+      <c r="I37" s="61"/>
+      <c r="J37" s="59">
         <v>0</v>
       </c>
-      <c r="K37" s="52"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="51">
+      <c r="K37" s="60"/>
+      <c r="L37" s="61"/>
+      <c r="M37" s="59">
         <f>G37-D37-J37</f>
         <v>0</v>
       </c>
-      <c r="N37" s="52"/>
-      <c r="O37" s="53"/>
+      <c r="N37" s="60"/>
+      <c r="O37" s="61"/>
       <c r="P37" s="48"/>
       <c r="Q37" s="48"/>
       <c r="R37" s="38" t="s">
@@ -3275,7 +3153,6 @@
       </c>
       <c r="S37" s="16"/>
       <c r="T37" s="17"/>
-      <c r="U37" s="18"/>
     </row>
     <row r="38" ht="21.75" customHeight="1">
       <c r="B38" s="19" t="s">
@@ -3284,26 +3161,26 @@
       <c r="C38" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="51" t="s">
+      <c r="D38" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="52"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="51" t="s">
+      <c r="E38" s="60"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="H38" s="52"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="51" t="s">
+      <c r="H38" s="60"/>
+      <c r="I38" s="61"/>
+      <c r="J38" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="K38" s="52"/>
-      <c r="L38" s="53"/>
-      <c r="M38" s="51" t="s">
+      <c r="K38" s="60"/>
+      <c r="L38" s="61"/>
+      <c r="M38" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="N38" s="52"/>
-      <c r="O38" s="53"/>
+      <c r="N38" s="60"/>
+      <c r="O38" s="61"/>
       <c r="P38" s="48"/>
       <c r="Q38" s="48"/>
       <c r="R38" s="38" t="s">
@@ -3311,7 +3188,6 @@
       </c>
       <c r="S38" s="16"/>
       <c r="T38" s="17"/>
-      <c r="U38" s="18"/>
     </row>
     <row r="39" ht="21.75" customHeight="1">
       <c r="B39" s="23"/>
@@ -3329,12 +3205,12 @@
         <v>14</v>
       </c>
       <c r="L39" s="25"/>
-      <c r="M39" s="63">
+      <c r="M39" s="64">
         <f>SUM(M8:M38)</f>
         <v>0</v>
       </c>
-      <c r="N39" s="63"/>
-      <c r="O39" s="63"/>
+      <c r="N39" s="64"/>
+      <c r="O39" s="64"/>
       <c r="P39" s="37" t="s">
         <v>12</v>
       </c>
@@ -3342,7 +3218,6 @@
       <c r="R39" s="27"/>
       <c r="S39" s="16"/>
       <c r="T39" s="17"/>
-      <c r="U39" s="17"/>
     </row>
     <row r="40" ht="4.5" customHeight="1">
       <c r="D40" s="8"/>
@@ -3377,23 +3252,23 @@
       <c r="S41" s="8"/>
     </row>
     <row r="42" ht="22.5" customHeight="1">
-      <c r="B42" s="64"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="65"/>
-      <c r="F42" s="65"/>
-      <c r="G42" s="65"/>
-      <c r="H42" s="65"/>
-      <c r="I42" s="65"/>
-      <c r="J42" s="65"/>
-      <c r="K42" s="65"/>
-      <c r="L42" s="65"/>
-      <c r="M42" s="65"/>
-      <c r="N42" s="65"/>
-      <c r="O42" s="65"/>
-      <c r="P42" s="65"/>
-      <c r="Q42" s="65"/>
-      <c r="R42" s="65"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="66"/>
+      <c r="J42" s="66"/>
+      <c r="K42" s="66"/>
+      <c r="L42" s="66"/>
+      <c r="M42" s="66"/>
+      <c r="N42" s="66"/>
+      <c r="O42" s="66"/>
+      <c r="P42" s="66"/>
+      <c r="Q42" s="66"/>
+      <c r="R42" s="66"/>
       <c r="S42" s="9"/>
     </row>
     <row r="43" ht="7.5" customHeight="1">
@@ -3415,36 +3290,36 @@
       <c r="S43" s="30"/>
     </row>
     <row r="44" ht="27" customHeight="1" s="31" customFormat="1">
-      <c r="B44" s="55" t="s">
+      <c r="B44" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="C44" s="56"/>
-      <c r="D44" s="57">
+      <c r="C44" s="68"/>
+      <c r="D44" s="70">
         <v>6.875</v>
       </c>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="55" t="s">
+      <c r="E44" s="70"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="H44" s="58"/>
-      <c r="I44" s="56"/>
-      <c r="J44" s="59">
+      <c r="H44" s="71"/>
+      <c r="I44" s="68"/>
+      <c r="J44" s="72">
         <f>M39</f>
         <v>0</v>
       </c>
-      <c r="K44" s="57"/>
-      <c r="L44" s="57"/>
-      <c r="M44" s="60"/>
-      <c r="N44" s="55" t="s">
+      <c r="K44" s="70"/>
+      <c r="L44" s="70"/>
+      <c r="M44" s="73"/>
+      <c r="N44" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="O44" s="58"/>
-      <c r="P44" s="61" t="str">
+      <c r="O44" s="71"/>
+      <c r="P44" s="62" t="str">
         <f>IF((J44-D44)&gt;0,TEXT(J44-D44,"[h]:mm"),TEXT(D44-J44,"-[h]:mm"))</f>
         <v>-165:00</v>
       </c>
-      <c r="Q44" s="62"/>
+      <c r="Q44" s="63"/>
       <c r="R44" s="36"/>
       <c r="S44" s="36"/>
     </row>
@@ -3479,10 +3354,10 @@
       <c r="P46" s="5"/>
       <c r="Q46" s="5"/>
     </row>
-    <row r="47" ht="11.4" s="33" customFormat="1"/>
-    <row r="48" ht="13.2" s="34" customFormat="1">
-      <c r="K48" s="54"/>
-      <c r="L48" s="54"/>
+    <row r="47" ht="12" s="33" customFormat="1"/>
+    <row r="48" ht="13.5" s="34" customFormat="1">
+      <c r="K48" s="69"/>
+      <c r="L48" s="69"/>
     </row>
     <row r="49">
       <c r="D49" s="8"/>
@@ -17256,15 +17131,127 @@
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="B42:R42"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:O13"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="J10:L10"/>
@@ -17275,173 +17262,60 @@
     <mergeCell ref="J8:L8"/>
     <mergeCell ref="M8:O8"/>
     <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="B42:R42"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.17" top="0.26" bottom="0.19685039370078741" header="0.24" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac xr">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V966"/>
+  <dimension ref="A1:T966"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+      <selection activeCell="U1" sqref="U1:U1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="0.77734375" customWidth="1" style="5"/>
+    <col min="1" max="1" width="0.75" customWidth="1" style="5"/>
     <col min="2" max="2" width="7" customWidth="1" style="5"/>
-    <col min="3" max="3" width="6.33203125" customWidth="1" style="3"/>
-    <col min="4" max="4" width="5.21875" customWidth="1" style="4"/>
-    <col min="5" max="5" width="5.44140625" customWidth="1" style="4"/>
-    <col min="6" max="6" width="1.77734375" customWidth="1" style="4"/>
-    <col min="7" max="7" width="4.88671875" customWidth="1" style="4"/>
-    <col min="8" max="8" width="3.88671875" customWidth="1" style="4"/>
-    <col min="9" max="9" width="3.33203125" customWidth="1" style="4"/>
-    <col min="10" max="10" width="3.88671875" customWidth="1" style="4"/>
-    <col min="11" max="11" width="3.33203125" customWidth="1" style="4"/>
-    <col min="12" max="12" width="2.77734375" customWidth="1" style="4"/>
-    <col min="13" max="13" width="3.88671875" customWidth="1" style="5"/>
-    <col min="14" max="14" width="6.33203125" customWidth="1" style="4"/>
-    <col min="15" max="15" width="4.77734375" customWidth="1" style="4"/>
-    <col min="16" max="16" width="10.77734375" customWidth="1" style="4"/>
-    <col min="17" max="17" width="10.77734375" customWidth="1" style="4"/>
-    <col min="18" max="18" width="8.109375" customWidth="1" style="5"/>
-    <col min="19" max="19" width="2.6640625" customWidth="1" style="5"/>
-    <col min="20" max="20" bestFit="1" width="6.33203125" customWidth="1" style="5"/>
-    <col min="21" max="21" bestFit="1" width="5.21875" customWidth="1" style="5"/>
-    <col min="22" max="22" width="6.21875" customWidth="1" style="5"/>
-    <col min="23" max="16384" width="9" customWidth="1" style="5"/>
+    <col min="3" max="3" width="6.375" customWidth="1" style="3"/>
+    <col min="4" max="4" width="5.25" customWidth="1" style="4"/>
+    <col min="5" max="5" width="5.5" customWidth="1" style="4"/>
+    <col min="6" max="6" width="1.75" customWidth="1" style="4"/>
+    <col min="7" max="7" width="4.875" customWidth="1" style="4"/>
+    <col min="8" max="8" width="3.875" customWidth="1" style="4"/>
+    <col min="9" max="9" width="3.375" customWidth="1" style="4"/>
+    <col min="10" max="10" width="3.875" customWidth="1" style="4"/>
+    <col min="11" max="11" width="3.375" customWidth="1" style="4"/>
+    <col min="12" max="12" width="2.75" customWidth="1" style="4"/>
+    <col min="13" max="13" width="3.875" customWidth="1" style="5"/>
+    <col min="14" max="14" width="6.375" customWidth="1" style="4"/>
+    <col min="15" max="15" width="4.75" customWidth="1" style="4"/>
+    <col min="16" max="16" width="10.75" customWidth="1" style="4"/>
+    <col min="17" max="17" width="10.75" customWidth="1" style="4"/>
+    <col min="18" max="18" width="8.125" customWidth="1" style="5"/>
+    <col min="19" max="19" width="2.625" customWidth="1" style="5"/>
+    <col min="20" max="20" bestFit="1" width="6.375" customWidth="1" style="5"/>
+    <col min="21" max="25" width="9" customWidth="1" style="5"/>
+    <col min="26" max="16384" width="9" customWidth="1" style="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1">
@@ -17453,21 +17327,21 @@
       <c r="C2" s="5"/>
     </row>
     <row r="3" ht="21.75" customHeight="1">
-      <c r="B3" s="69">
+      <c r="B3" s="51">
         <v>44013</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
       <c r="F3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="71">
+      <c r="G3" s="53">
         <v>44043</v>
       </c>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="72"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="54"/>
       <c r="M3" s="4"/>
       <c r="N3" s="5"/>
       <c r="R3" s="4"/>
@@ -17477,13 +17351,13 @@
       <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
     </row>
     <row r="6" ht="3" customHeight="1">
       <c r="D6" s="8"/>
@@ -17510,26 +17384,26 @@
       <c r="C7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="66" t="s">
+      <c r="D7" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="67"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="66" t="s">
+      <c r="E7" s="57"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="67"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="66" t="s">
+      <c r="H7" s="57"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="67"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="66" t="s">
+      <c r="K7" s="57"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="67"/>
-      <c r="O7" s="68"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="58"/>
       <c r="P7" s="35" t="s">
         <v>9</v>
       </c>
@@ -17580,10 +17454,6 @@
       </c>
       <c r="S8" s="16"/>
       <c r="T8" s="17"/>
-      <c r="U8" s="82">
-        <v>44012.625</v>
-      </c>
-      <c r="V8" s="18"/>
     </row>
     <row r="9" ht="21.75" customHeight="1">
       <c r="B9" s="19">
@@ -17594,27 +17464,27 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D9" s="51">
+      <c r="D9" s="59">
         <v>0</v>
       </c>
-      <c r="E9" s="52"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="51">
+      <c r="E9" s="60"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="59">
         <v>0</v>
       </c>
-      <c r="H9" s="52"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="51">
+      <c r="H9" s="60"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="59">
         <v>0</v>
       </c>
-      <c r="K9" s="52"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="51">
+      <c r="K9" s="60"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="59">
         <f>G9-D9-J9</f>
         <v>0</v>
       </c>
-      <c r="N9" s="52"/>
-      <c r="O9" s="53"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="61"/>
       <c r="P9" s="48"/>
       <c r="Q9" s="48"/>
       <c r="R9" s="38" t="s">
@@ -17632,27 +17502,27 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D10" s="51">
+      <c r="D10" s="59">
         <v>0</v>
       </c>
-      <c r="E10" s="52"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="51">
+      <c r="E10" s="60"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="59">
         <v>0</v>
       </c>
-      <c r="H10" s="52"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="51">
+      <c r="H10" s="60"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="59">
         <v>0</v>
       </c>
-      <c r="K10" s="52"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="51">
+      <c r="K10" s="60"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="59">
         <f>G10-D10-J10</f>
         <v>0</v>
       </c>
-      <c r="N10" s="52"/>
-      <c r="O10" s="53"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="61"/>
       <c r="P10" s="48"/>
       <c r="Q10" s="48"/>
       <c r="R10" s="50" t="s">
@@ -17670,26 +17540,26 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="52"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="51" t="s">
+      <c r="E11" s="60"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="52"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="51" t="s">
+      <c r="H11" s="60"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="52"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="51" t="s">
+      <c r="K11" s="60"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="52"/>
-      <c r="O11" s="53"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="61"/>
       <c r="P11" s="48" t="s">
         <v>12</v>
       </c>
@@ -17699,9 +17569,6 @@
       </c>
       <c r="S11" s="16"/>
       <c r="T11" s="17"/>
-      <c r="U11" s="83" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="12" ht="21.75" customHeight="1">
       <c r="B12" s="19">
@@ -17712,26 +17579,26 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="52"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="51" t="s">
+      <c r="E12" s="60"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="52"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="51" t="s">
+      <c r="H12" s="60"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="52"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="51" t="s">
+      <c r="K12" s="60"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="N12" s="52"/>
-      <c r="O12" s="53"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="61"/>
       <c r="P12" s="48"/>
       <c r="Q12" s="48"/>
       <c r="R12" s="38" t="s">
@@ -17739,9 +17606,6 @@
       </c>
       <c r="S12" s="22"/>
       <c r="T12" s="17"/>
-      <c r="U12" s="84" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="13" ht="21.75" customHeight="1">
       <c r="B13" s="19">
@@ -17752,35 +17616,32 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D13" s="51">
+      <c r="D13" s="59">
         <v>0</v>
       </c>
-      <c r="E13" s="52"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="51">
+      <c r="E13" s="60"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="59">
         <v>0</v>
       </c>
-      <c r="H13" s="52"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="51">
+      <c r="H13" s="60"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="59">
         <v>0</v>
       </c>
-      <c r="K13" s="52"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="51">
+      <c r="K13" s="60"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="59">
         <f>G13-D13-J13</f>
         <v>0</v>
       </c>
-      <c r="N13" s="52"/>
-      <c r="O13" s="53"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="61"/>
       <c r="P13" s="48"/>
       <c r="Q13" s="48"/>
       <c r="R13" s="20"/>
       <c r="S13" s="16"/>
       <c r="T13" s="17"/>
-      <c r="U13" s="85" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="14" ht="21.75" customHeight="1">
       <c r="B14" s="19">
@@ -17791,35 +17652,32 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D14" s="51">
+      <c r="D14" s="59">
         <v>0</v>
       </c>
-      <c r="E14" s="52"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="51">
+      <c r="E14" s="60"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="59">
         <v>0</v>
       </c>
-      <c r="H14" s="52"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="51">
+      <c r="H14" s="60"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="59">
         <v>0</v>
       </c>
-      <c r="K14" s="52"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="51">
+      <c r="K14" s="60"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="59">
         <f>G14-D14-J14</f>
         <v>0</v>
       </c>
-      <c r="N14" s="52"/>
-      <c r="O14" s="53"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="61"/>
       <c r="P14" s="48"/>
       <c r="Q14" s="48"/>
       <c r="R14" s="20"/>
       <c r="S14" s="16"/>
       <c r="T14" s="17"/>
-      <c r="U14" s="85" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="15" ht="21.75" customHeight="1">
       <c r="B15" s="19">
@@ -17830,27 +17688,27 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D15" s="51">
+      <c r="D15" s="59">
         <v>0</v>
       </c>
-      <c r="E15" s="52"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="51">
+      <c r="E15" s="60"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="59">
         <v>0</v>
       </c>
-      <c r="H15" s="52"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="51">
+      <c r="H15" s="60"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="59">
         <v>0</v>
       </c>
-      <c r="K15" s="52"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="51">
+      <c r="K15" s="60"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="59">
         <f>G15-D15-J15</f>
         <v>0</v>
       </c>
-      <c r="N15" s="52"/>
-      <c r="O15" s="53"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="61"/>
       <c r="P15" s="48" t="s">
         <v>12</v>
       </c>
@@ -17858,9 +17716,6 @@
       <c r="R15" s="20"/>
       <c r="S15" s="16"/>
       <c r="T15" s="17"/>
-      <c r="U15" s="85" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="16" ht="21.75" customHeight="1">
       <c r="B16" s="19">
@@ -17871,35 +17726,32 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D16" s="51">
+      <c r="D16" s="59">
         <v>0</v>
       </c>
-      <c r="E16" s="52"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="51">
+      <c r="E16" s="60"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="59">
         <v>0</v>
       </c>
-      <c r="H16" s="52"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="51">
+      <c r="H16" s="60"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="59">
         <v>0</v>
       </c>
-      <c r="K16" s="52"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="51">
+      <c r="K16" s="60"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="59">
         <f>G16-D16-J16</f>
         <v>0</v>
       </c>
-      <c r="N16" s="52"/>
-      <c r="O16" s="53"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="61"/>
       <c r="P16" s="48"/>
       <c r="Q16" s="48"/>
       <c r="R16" s="38"/>
       <c r="S16" s="16"/>
       <c r="T16" s="17"/>
-      <c r="U16" s="85" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="17" ht="21.75" customHeight="1">
       <c r="B17" s="19">
@@ -17910,33 +17762,32 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D17" s="51">
+      <c r="D17" s="59">
         <v>0</v>
       </c>
-      <c r="E17" s="52"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="51">
+      <c r="E17" s="60"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="59">
         <v>0</v>
       </c>
-      <c r="H17" s="52"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="51">
+      <c r="H17" s="60"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="59">
         <v>0</v>
       </c>
-      <c r="K17" s="52"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="51">
+      <c r="K17" s="60"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="59">
         <f>G17-D17-J17</f>
         <v>0</v>
       </c>
-      <c r="N17" s="52"/>
-      <c r="O17" s="53"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="61"/>
       <c r="P17" s="48"/>
       <c r="Q17" s="48"/>
       <c r="R17" s="20"/>
       <c r="S17" s="16"/>
       <c r="T17" s="17"/>
-      <c r="U17" s="85"/>
     </row>
     <row r="18" ht="21.75" customHeight="1">
       <c r="B18" s="19">
@@ -17947,32 +17798,31 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D18" s="51" t="s">
+      <c r="D18" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="52"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="51" t="s">
+      <c r="E18" s="60"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="52"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="51" t="s">
+      <c r="H18" s="60"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="K18" s="52"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="51" t="s">
+      <c r="K18" s="60"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="N18" s="52"/>
-      <c r="O18" s="53"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="61"/>
       <c r="P18" s="48"/>
       <c r="Q18" s="48"/>
       <c r="R18" s="20"/>
       <c r="S18" s="16"/>
       <c r="T18" s="17"/>
-      <c r="U18" s="85"/>
     </row>
     <row r="19" ht="21.75" customHeight="1">
       <c r="B19" s="19">
@@ -17983,34 +17833,31 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D19" s="51" t="s">
+      <c r="D19" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="52"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="51" t="s">
+      <c r="E19" s="60"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="52"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="51" t="s">
+      <c r="H19" s="60"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="K19" s="52"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="51" t="s">
+      <c r="K19" s="60"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="N19" s="52"/>
-      <c r="O19" s="53"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="61"/>
       <c r="P19" s="48"/>
       <c r="Q19" s="48"/>
       <c r="R19" s="38"/>
       <c r="S19" s="16"/>
       <c r="T19" s="17"/>
-      <c r="U19" s="85" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="20" ht="21.75" customHeight="1">
       <c r="B20" s="19">
@@ -18021,27 +17868,27 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D20" s="51">
+      <c r="D20" s="59">
         <v>0</v>
       </c>
-      <c r="E20" s="52"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="51">
+      <c r="E20" s="60"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="59">
         <v>0</v>
       </c>
-      <c r="H20" s="52"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="51">
+      <c r="H20" s="60"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="59">
         <v>0</v>
       </c>
-      <c r="K20" s="52"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="51">
+      <c r="K20" s="60"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="59">
         <f>G20-D20-J20</f>
         <v>0</v>
       </c>
-      <c r="N20" s="52"/>
-      <c r="O20" s="53"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="61"/>
       <c r="P20" s="49" t="s">
         <v>18</v>
       </c>
@@ -18049,9 +17896,6 @@
       <c r="R20" s="38"/>
       <c r="S20" s="16"/>
       <c r="T20" s="17"/>
-      <c r="U20" s="85" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="21" ht="21.75" customHeight="1">
       <c r="B21" s="19">
@@ -18062,27 +17906,27 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D21" s="51">
+      <c r="D21" s="59">
         <v>0</v>
       </c>
-      <c r="E21" s="52"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="51">
+      <c r="E21" s="60"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="59">
         <v>0</v>
       </c>
-      <c r="H21" s="52"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="51">
+      <c r="H21" s="60"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="59">
         <v>0</v>
       </c>
-      <c r="K21" s="52"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="51">
+      <c r="K21" s="60"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="59">
         <f>G21-D21-J21</f>
         <v>0</v>
       </c>
-      <c r="N21" s="52"/>
-      <c r="O21" s="53"/>
+      <c r="N21" s="60"/>
+      <c r="O21" s="61"/>
       <c r="P21" s="48"/>
       <c r="Q21" s="48"/>
       <c r="R21" s="38" t="s">
@@ -18090,9 +17934,6 @@
       </c>
       <c r="S21" s="16"/>
       <c r="T21" s="17"/>
-      <c r="U21" s="85" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="22" ht="21.75" customHeight="1">
       <c r="B22" s="19">
@@ -18103,35 +17944,32 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D22" s="51">
+      <c r="D22" s="59">
         <v>0</v>
       </c>
-      <c r="E22" s="52"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="51">
+      <c r="E22" s="60"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="59">
         <v>0</v>
       </c>
-      <c r="H22" s="52"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="51">
+      <c r="H22" s="60"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="59">
         <v>0</v>
       </c>
-      <c r="K22" s="52"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="51">
+      <c r="K22" s="60"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="59">
         <f>G22-D22-J22</f>
         <v>0</v>
       </c>
-      <c r="N22" s="52"/>
-      <c r="O22" s="53"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="61"/>
       <c r="P22" s="48"/>
       <c r="Q22" s="48"/>
       <c r="R22" s="20"/>
       <c r="S22" s="16"/>
       <c r="T22" s="17"/>
-      <c r="U22" s="85" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="23" ht="21.75" customHeight="1">
       <c r="B23" s="19">
@@ -18142,27 +17980,27 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D23" s="51">
+      <c r="D23" s="59">
         <v>0</v>
       </c>
-      <c r="E23" s="52"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="51">
+      <c r="E23" s="60"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="59">
         <v>0</v>
       </c>
-      <c r="H23" s="52"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="51">
+      <c r="H23" s="60"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="59">
         <v>0</v>
       </c>
-      <c r="K23" s="52"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="51">
+      <c r="K23" s="60"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="59">
         <f>G23-D23-J23</f>
         <v>0</v>
       </c>
-      <c r="N23" s="52"/>
-      <c r="O23" s="53"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="61"/>
       <c r="P23" s="49" t="s">
         <v>18</v>
       </c>
@@ -18170,9 +18008,6 @@
       <c r="R23" s="20"/>
       <c r="S23" s="16"/>
       <c r="T23" s="17"/>
-      <c r="U23" s="85" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="24" ht="21.75" customHeight="1">
       <c r="B24" s="19">
@@ -18183,27 +18018,27 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D24" s="51">
+      <c r="D24" s="59">
         <v>0</v>
       </c>
-      <c r="E24" s="52"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="51">
+      <c r="E24" s="60"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="59">
         <v>0</v>
       </c>
-      <c r="H24" s="52"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="51">
+      <c r="H24" s="60"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="59">
         <v>0</v>
       </c>
-      <c r="K24" s="52"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="51">
+      <c r="K24" s="60"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="59">
         <f>G24-D24-J24</f>
         <v>0</v>
       </c>
-      <c r="N24" s="52"/>
-      <c r="O24" s="53"/>
+      <c r="N24" s="60"/>
+      <c r="O24" s="61"/>
       <c r="P24" s="48"/>
       <c r="Q24" s="48"/>
       <c r="R24" s="38" t="s">
@@ -18211,7 +18046,6 @@
       </c>
       <c r="S24" s="16"/>
       <c r="T24" s="17"/>
-      <c r="U24" s="85"/>
     </row>
     <row r="25" ht="21.75" customHeight="1">
       <c r="B25" s="19">
@@ -18222,26 +18056,26 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D25" s="51" t="s">
+      <c r="D25" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="52"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="51" t="s">
+      <c r="E25" s="60"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="52"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="51" t="s">
+      <c r="H25" s="60"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="K25" s="52"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="51" t="s">
+      <c r="K25" s="60"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="N25" s="52"/>
-      <c r="O25" s="53"/>
+      <c r="N25" s="60"/>
+      <c r="O25" s="61"/>
       <c r="P25" s="48" t="s">
         <v>12</v>
       </c>
@@ -18249,7 +18083,6 @@
       <c r="R25" s="20"/>
       <c r="S25" s="16"/>
       <c r="T25" s="17"/>
-      <c r="U25" s="85"/>
     </row>
     <row r="26" ht="21.75" customHeight="1">
       <c r="B26" s="19">
@@ -18260,34 +18093,31 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D26" s="51" t="s">
+      <c r="D26" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="52"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="51" t="s">
+      <c r="E26" s="60"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="52"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="51" t="s">
+      <c r="H26" s="60"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="K26" s="52"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="51" t="s">
+      <c r="K26" s="60"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="N26" s="52"/>
-      <c r="O26" s="53"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="61"/>
       <c r="P26" s="48"/>
       <c r="Q26" s="48"/>
       <c r="R26" s="20"/>
       <c r="S26" s="16"/>
       <c r="T26" s="17"/>
-      <c r="U26" s="85" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="27" ht="21.75" customHeight="1">
       <c r="B27" s="19">
@@ -18298,35 +18128,32 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D27" s="51">
+      <c r="D27" s="59">
         <v>0</v>
       </c>
-      <c r="E27" s="52"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="51">
+      <c r="E27" s="60"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="59">
         <v>0</v>
       </c>
-      <c r="H27" s="52"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="51">
+      <c r="H27" s="60"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="59">
         <v>0</v>
       </c>
-      <c r="K27" s="52"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="51">
+      <c r="K27" s="60"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="59">
         <f>G27-D27-J27</f>
         <v>0</v>
       </c>
-      <c r="N27" s="52"/>
-      <c r="O27" s="53"/>
+      <c r="N27" s="60"/>
+      <c r="O27" s="61"/>
       <c r="P27" s="48"/>
       <c r="Q27" s="48"/>
       <c r="R27" s="20"/>
       <c r="S27" s="16"/>
       <c r="T27" s="17"/>
-      <c r="U27" s="85" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="28" ht="21.75" customHeight="1">
       <c r="B28" s="19">
@@ -18337,35 +18164,32 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D28" s="51">
+      <c r="D28" s="59">
         <v>0</v>
       </c>
-      <c r="E28" s="52"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="51">
+      <c r="E28" s="60"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="59">
         <v>0</v>
       </c>
-      <c r="H28" s="52"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="51">
+      <c r="H28" s="60"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="59">
         <v>0</v>
       </c>
-      <c r="K28" s="52"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="51">
+      <c r="K28" s="60"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="59">
         <f>G28-D28-J28</f>
         <v>0</v>
       </c>
-      <c r="N28" s="52"/>
-      <c r="O28" s="53"/>
+      <c r="N28" s="60"/>
+      <c r="O28" s="61"/>
       <c r="P28" s="48"/>
       <c r="Q28" s="48"/>
       <c r="R28" s="20"/>
       <c r="S28" s="16"/>
       <c r="T28" s="17"/>
-      <c r="U28" s="85" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="29" ht="21.75" customHeight="1">
       <c r="B29" s="19">
@@ -18376,35 +18200,32 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D29" s="51">
+      <c r="D29" s="59">
         <v>0</v>
       </c>
-      <c r="E29" s="52"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="51">
+      <c r="E29" s="60"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="59">
         <v>0</v>
       </c>
-      <c r="H29" s="52"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="51">
+      <c r="H29" s="60"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="59">
         <v>0</v>
       </c>
-      <c r="K29" s="52"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="51">
+      <c r="K29" s="60"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="59">
         <f>G29-D29-J29</f>
         <v>0</v>
       </c>
-      <c r="N29" s="52"/>
-      <c r="O29" s="53"/>
+      <c r="N29" s="60"/>
+      <c r="O29" s="61"/>
       <c r="P29" s="48"/>
       <c r="Q29" s="48"/>
       <c r="R29" s="20"/>
       <c r="S29" s="16"/>
       <c r="T29" s="17"/>
-      <c r="U29" s="85" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="30" ht="21.75" customHeight="1">
       <c r="B30" s="19">
@@ -18415,34 +18236,31 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D30" s="51" t="s">
+      <c r="D30" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="52"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="51" t="s">
+      <c r="E30" s="60"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="H30" s="52"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="K30" s="52"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="51" t="s">
+      <c r="H30" s="60"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="K30" s="60"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="N30" s="52"/>
-      <c r="O30" s="53"/>
+      <c r="N30" s="60"/>
+      <c r="O30" s="61"/>
       <c r="P30" s="48"/>
       <c r="Q30" s="48"/>
       <c r="R30" s="20"/>
       <c r="S30" s="16"/>
       <c r="T30" s="17"/>
-      <c r="U30" s="85" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="31" ht="21.75" customHeight="1">
       <c r="B31" s="19">
@@ -18453,32 +18271,31 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D31" s="51" t="s">
+      <c r="D31" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="52"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="51" t="s">
+      <c r="E31" s="60"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="H31" s="52"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="51" t="s">
+      <c r="H31" s="60"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="K31" s="52"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="51" t="s">
+      <c r="K31" s="60"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="N31" s="52"/>
-      <c r="O31" s="53"/>
+      <c r="N31" s="60"/>
+      <c r="O31" s="61"/>
       <c r="P31" s="48"/>
       <c r="Q31" s="48"/>
       <c r="R31" s="20"/>
       <c r="S31" s="16"/>
       <c r="T31" s="17"/>
-      <c r="U31" s="85"/>
     </row>
     <row r="32" ht="21.75" customHeight="1">
       <c r="B32" s="19">
@@ -18489,26 +18306,26 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D32" s="51" t="s">
+      <c r="D32" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="52"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="51" t="s">
+      <c r="E32" s="60"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="52"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="51" t="s">
+      <c r="H32" s="60"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="K32" s="52"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="51" t="s">
+      <c r="K32" s="60"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="N32" s="52"/>
-      <c r="O32" s="53"/>
+      <c r="N32" s="60"/>
+      <c r="O32" s="61"/>
       <c r="P32" s="48" t="s">
         <v>12</v>
       </c>
@@ -18516,7 +18333,6 @@
       <c r="R32" s="20"/>
       <c r="S32" s="16"/>
       <c r="T32" s="17"/>
-      <c r="U32" s="85"/>
     </row>
     <row r="33" ht="21.75" customHeight="1">
       <c r="B33" s="19">
@@ -18527,34 +18343,31 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D33" s="51" t="s">
+      <c r="D33" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="52"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="51" t="s">
+      <c r="E33" s="60"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="H33" s="52"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="51" t="s">
+      <c r="H33" s="60"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="K33" s="52"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="51" t="s">
+      <c r="K33" s="60"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="N33" s="52"/>
-      <c r="O33" s="53"/>
+      <c r="N33" s="60"/>
+      <c r="O33" s="61"/>
       <c r="P33" s="48"/>
       <c r="Q33" s="48"/>
       <c r="R33" s="20"/>
       <c r="S33" s="16"/>
       <c r="T33" s="17"/>
-      <c r="U33" s="85" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="34" ht="21.75" customHeight="1">
       <c r="B34" s="19">
@@ -18565,35 +18378,32 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D34" s="51">
+      <c r="D34" s="59">
         <v>0</v>
       </c>
-      <c r="E34" s="52"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="51">
+      <c r="E34" s="60"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="59">
         <v>0</v>
       </c>
-      <c r="H34" s="52"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="51">
+      <c r="H34" s="60"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="59">
         <v>0</v>
       </c>
-      <c r="K34" s="52"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="51">
+      <c r="K34" s="60"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="59">
         <f>G34-D34-J34</f>
         <v>0</v>
       </c>
-      <c r="N34" s="52"/>
-      <c r="O34" s="53"/>
+      <c r="N34" s="60"/>
+      <c r="O34" s="61"/>
       <c r="P34" s="48"/>
       <c r="Q34" s="48"/>
       <c r="R34" s="20"/>
       <c r="S34" s="16"/>
       <c r="T34" s="17"/>
-      <c r="U34" s="85" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="35" ht="21.75" customHeight="1">
       <c r="B35" s="19">
@@ -18604,27 +18414,27 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D35" s="51">
+      <c r="D35" s="59">
         <v>0</v>
       </c>
-      <c r="E35" s="52"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="51">
+      <c r="E35" s="60"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="59">
         <v>0</v>
       </c>
-      <c r="H35" s="52"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="51">
+      <c r="H35" s="60"/>
+      <c r="I35" s="61"/>
+      <c r="J35" s="59">
         <v>0</v>
       </c>
-      <c r="K35" s="52"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="51">
+      <c r="K35" s="60"/>
+      <c r="L35" s="61"/>
+      <c r="M35" s="59">
         <f>G35-D35-J35</f>
         <v>0</v>
       </c>
-      <c r="N35" s="52"/>
-      <c r="O35" s="53"/>
+      <c r="N35" s="60"/>
+      <c r="O35" s="61"/>
       <c r="P35" s="48"/>
       <c r="Q35" s="48"/>
       <c r="R35" s="43" t="s">
@@ -18632,9 +18442,6 @@
       </c>
       <c r="S35" s="16"/>
       <c r="T35" s="17"/>
-      <c r="U35" s="85" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="36" ht="21.75" customHeight="1">
       <c r="B36" s="19">
@@ -18645,27 +18452,27 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D36" s="51">
+      <c r="D36" s="59">
         <v>0</v>
       </c>
-      <c r="E36" s="52"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="51">
+      <c r="E36" s="60"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="59">
         <v>0</v>
       </c>
-      <c r="H36" s="52"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="51">
+      <c r="H36" s="60"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="59">
         <v>0</v>
       </c>
-      <c r="K36" s="52"/>
-      <c r="L36" s="53"/>
-      <c r="M36" s="51">
+      <c r="K36" s="60"/>
+      <c r="L36" s="61"/>
+      <c r="M36" s="59">
         <f>G36-D36-J36</f>
         <v>0</v>
       </c>
-      <c r="N36" s="52"/>
-      <c r="O36" s="53"/>
+      <c r="N36" s="60"/>
+      <c r="O36" s="61"/>
       <c r="P36" s="49" t="s">
         <v>18</v>
       </c>
@@ -18673,9 +18480,6 @@
       <c r="R36" s="20"/>
       <c r="S36" s="16"/>
       <c r="T36" s="17"/>
-      <c r="U36" s="85" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="37" ht="21.75" customHeight="1">
       <c r="B37" s="19">
@@ -18686,27 +18490,27 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D37" s="51">
+      <c r="D37" s="59">
         <v>0</v>
       </c>
-      <c r="E37" s="52"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="51">
+      <c r="E37" s="60"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="59">
         <v>0</v>
       </c>
-      <c r="H37" s="52"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="51">
+      <c r="H37" s="60"/>
+      <c r="I37" s="61"/>
+      <c r="J37" s="59">
         <v>0</v>
       </c>
-      <c r="K37" s="52"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="51">
+      <c r="K37" s="60"/>
+      <c r="L37" s="61"/>
+      <c r="M37" s="59">
         <f>G37-D37-J37</f>
         <v>0</v>
       </c>
-      <c r="N37" s="52"/>
-      <c r="O37" s="53"/>
+      <c r="N37" s="60"/>
+      <c r="O37" s="61"/>
       <c r="P37" s="49" t="s">
         <v>18</v>
       </c>
@@ -18716,9 +18520,6 @@
       </c>
       <c r="S37" s="16"/>
       <c r="T37" s="17"/>
-      <c r="U37" s="85" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="38" ht="21.75" customHeight="1">
       <c r="B38" s="19">
@@ -18729,27 +18530,27 @@
         <f>WEEKDAY(B38)</f>
         <v>6</v>
       </c>
-      <c r="D38" s="51">
+      <c r="D38" s="59">
         <v>0</v>
       </c>
-      <c r="E38" s="52"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="51">
+      <c r="E38" s="60"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="59">
         <v>0</v>
       </c>
-      <c r="H38" s="52"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="51">
+      <c r="H38" s="60"/>
+      <c r="I38" s="61"/>
+      <c r="J38" s="59">
         <v>0</v>
       </c>
-      <c r="K38" s="52"/>
-      <c r="L38" s="53"/>
-      <c r="M38" s="51">
+      <c r="K38" s="60"/>
+      <c r="L38" s="61"/>
+      <c r="M38" s="59">
         <f>G38-D38-J38</f>
         <v>0</v>
       </c>
-      <c r="N38" s="52"/>
-      <c r="O38" s="53"/>
+      <c r="N38" s="60"/>
+      <c r="O38" s="61"/>
       <c r="P38" s="49" t="s">
         <v>18</v>
       </c>
@@ -18759,14 +18560,13 @@
       </c>
       <c r="S38" s="16"/>
       <c r="T38" s="17"/>
-      <c r="U38" s="85"/>
     </row>
     <row r="39" ht="21.75" customHeight="1">
       <c r="B39" s="23"/>
       <c r="C39" s="24"/>
       <c r="D39" s="25"/>
       <c r="E39" s="40" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F39" s="25"/>
       <c r="G39" s="25"/>
@@ -18777,12 +18577,12 @@
         <v>14</v>
       </c>
       <c r="L39" s="25"/>
-      <c r="M39" s="63">
+      <c r="M39" s="64">
         <f>SUM(M8:M38)</f>
         <v>0</v>
       </c>
-      <c r="N39" s="63"/>
-      <c r="O39" s="63"/>
+      <c r="N39" s="64"/>
+      <c r="O39" s="64"/>
       <c r="P39" s="37" t="s">
         <v>12</v>
       </c>
@@ -18790,7 +18590,6 @@
       <c r="R39" s="27"/>
       <c r="S39" s="16"/>
       <c r="T39" s="17"/>
-      <c r="U39" s="86"/>
     </row>
     <row r="40" ht="4.5" customHeight="1">
       <c r="D40" s="8"/>
@@ -18806,9 +18605,6 @@
       <c r="O40" s="8"/>
       <c r="P40" s="8"/>
       <c r="Q40" s="8"/>
-      <c r="U40" s="86" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="41" ht="3.75" customHeight="1">
       <c r="D41" s="8"/>
@@ -18826,28 +18622,25 @@
       <c r="Q41" s="8"/>
       <c r="R41" s="8"/>
       <c r="S41" s="8"/>
-      <c r="U41" s="86" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="42" ht="22.5" customHeight="1">
-      <c r="B42" s="64"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="65"/>
-      <c r="F42" s="65"/>
-      <c r="G42" s="65"/>
-      <c r="H42" s="65"/>
-      <c r="I42" s="65"/>
-      <c r="J42" s="65"/>
-      <c r="K42" s="65"/>
-      <c r="L42" s="65"/>
-      <c r="M42" s="65"/>
-      <c r="N42" s="65"/>
-      <c r="O42" s="65"/>
-      <c r="P42" s="65"/>
-      <c r="Q42" s="65"/>
-      <c r="R42" s="65"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="66"/>
+      <c r="J42" s="66"/>
+      <c r="K42" s="66"/>
+      <c r="L42" s="66"/>
+      <c r="M42" s="66"/>
+      <c r="N42" s="66"/>
+      <c r="O42" s="66"/>
+      <c r="P42" s="66"/>
+      <c r="Q42" s="66"/>
+      <c r="R42" s="66"/>
       <c r="S42" s="9"/>
     </row>
     <row r="43" ht="7.5" customHeight="1">
@@ -18869,36 +18662,36 @@
       <c r="S43" s="30"/>
     </row>
     <row r="44" ht="27" customHeight="1" s="31" customFormat="1">
-      <c r="B44" s="55" t="s">
+      <c r="B44" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="C44" s="56"/>
-      <c r="D44" s="57">
+      <c r="C44" s="68"/>
+      <c r="D44" s="70">
         <v>6.5625</v>
       </c>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="55" t="s">
+      <c r="E44" s="70"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="H44" s="58"/>
-      <c r="I44" s="56"/>
-      <c r="J44" s="59">
+      <c r="H44" s="71"/>
+      <c r="I44" s="68"/>
+      <c r="J44" s="72">
         <f>M39</f>
         <v>0</v>
       </c>
-      <c r="K44" s="57"/>
-      <c r="L44" s="57"/>
-      <c r="M44" s="60"/>
-      <c r="N44" s="55" t="s">
+      <c r="K44" s="70"/>
+      <c r="L44" s="70"/>
+      <c r="M44" s="73"/>
+      <c r="N44" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="O44" s="58"/>
-      <c r="P44" s="61" t="str">
+      <c r="O44" s="71"/>
+      <c r="P44" s="62" t="str">
         <f>IF((J44-D44)&gt;0,TEXT(J44-D44,"[h]:mm"),TEXT(D44-J44,"-[h]:mm"))</f>
         <v>-157:30</v>
       </c>
-      <c r="Q44" s="62"/>
+      <c r="Q44" s="63"/>
       <c r="R44" s="36"/>
       <c r="S44" s="36"/>
     </row>
@@ -18933,10 +18726,10 @@
       <c r="P46" s="5"/>
       <c r="Q46" s="5"/>
     </row>
-    <row r="47" ht="11.4" s="33" customFormat="1"/>
-    <row r="48" ht="13.2" s="34" customFormat="1">
-      <c r="K48" s="54"/>
-      <c r="L48" s="54"/>
+    <row r="47" ht="12" s="33" customFormat="1"/>
+    <row r="48" ht="13.5" s="34" customFormat="1">
+      <c r="K48" s="69"/>
+      <c r="L48" s="69"/>
     </row>
     <row r="49">
       <c r="D49" s="8"/>
@@ -32710,129 +32503,11 @@
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="J44:M44"/>
     <mergeCell ref="D37:F37"/>
     <mergeCell ref="G37:I37"/>
     <mergeCell ref="J37:L37"/>
@@ -32844,24 +32519,142 @@
     <mergeCell ref="M38:O38"/>
     <mergeCell ref="M39:O39"/>
     <mergeCell ref="B42:R42"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="J44:M44"/>
     <mergeCell ref="N44:O44"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.17" top="0.26" bottom="0.19685039370078741" header="0.24" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac xr">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -32871,31 +32664,32 @@
       <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="0.77734375" customWidth="1" style="5"/>
+    <col min="1" max="1" width="0.75" customWidth="1" style="5"/>
     <col min="2" max="2" width="7" customWidth="1" style="5"/>
-    <col min="3" max="3" width="6.33203125" customWidth="1" style="3"/>
-    <col min="4" max="4" width="5.21875" customWidth="1" style="4"/>
-    <col min="5" max="5" width="5.44140625" customWidth="1" style="4"/>
-    <col min="6" max="6" width="1.77734375" customWidth="1" style="4"/>
-    <col min="7" max="7" width="4.88671875" customWidth="1" style="4"/>
-    <col min="8" max="8" width="3.88671875" customWidth="1" style="4"/>
-    <col min="9" max="9" width="3.33203125" customWidth="1" style="4"/>
-    <col min="10" max="10" width="3.88671875" customWidth="1" style="4"/>
-    <col min="11" max="11" width="3.33203125" customWidth="1" style="4"/>
-    <col min="12" max="12" width="2.77734375" customWidth="1" style="4"/>
-    <col min="13" max="13" width="3.88671875" customWidth="1" style="5"/>
-    <col min="14" max="14" width="6.33203125" customWidth="1" style="4"/>
-    <col min="15" max="15" width="4.77734375" customWidth="1" style="4"/>
-    <col min="16" max="16" width="10.77734375" customWidth="1" style="4"/>
-    <col min="17" max="17" width="10.77734375" customWidth="1" style="4"/>
-    <col min="18" max="18" width="8.109375" customWidth="1" style="5"/>
-    <col min="19" max="19" width="2.6640625" customWidth="1" style="5"/>
-    <col min="20" max="20" bestFit="1" width="6.33203125" customWidth="1" style="5"/>
-    <col min="21" max="21" bestFit="1" width="5.21875" customWidth="1" style="5"/>
-    <col min="22" max="22" width="6.21875" customWidth="1" style="5"/>
-    <col min="23" max="16384" width="9" customWidth="1" style="5"/>
+    <col min="3" max="3" width="6.375" customWidth="1" style="3"/>
+    <col min="4" max="4" width="5.25" customWidth="1" style="4"/>
+    <col min="5" max="5" width="5.5" customWidth="1" style="4"/>
+    <col min="6" max="6" width="1.75" customWidth="1" style="4"/>
+    <col min="7" max="7" width="4.875" customWidth="1" style="4"/>
+    <col min="8" max="8" width="3.875" customWidth="1" style="4"/>
+    <col min="9" max="9" width="3.375" customWidth="1" style="4"/>
+    <col min="10" max="10" width="3.875" customWidth="1" style="4"/>
+    <col min="11" max="11" width="3.375" customWidth="1" style="4"/>
+    <col min="12" max="12" width="2.75" customWidth="1" style="4"/>
+    <col min="13" max="13" width="3.875" customWidth="1" style="5"/>
+    <col min="14" max="14" width="6.375" customWidth="1" style="4"/>
+    <col min="15" max="15" width="4.75" customWidth="1" style="4"/>
+    <col min="16" max="16" width="10.75" customWidth="1" style="4"/>
+    <col min="17" max="17" width="10.75" customWidth="1" style="4"/>
+    <col min="18" max="18" width="8.125" customWidth="1" style="5"/>
+    <col min="19" max="19" width="2.625" customWidth="1" style="5"/>
+    <col min="20" max="20" bestFit="1" width="6.375" customWidth="1" style="5"/>
+    <col min="21" max="21" bestFit="1" width="5.25" customWidth="1" style="5"/>
+    <col min="22" max="22" width="6.25" customWidth="1" style="5"/>
+    <col min="23" max="29" width="9" customWidth="1" style="5"/>
+    <col min="30" max="16384" width="9" customWidth="1" style="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1">
@@ -32907,21 +32701,21 @@
       <c r="C2" s="5"/>
     </row>
     <row r="3" ht="21.75" customHeight="1">
-      <c r="B3" s="69">
+      <c r="B3" s="51">
         <v>44044</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
       <c r="F3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="71">
+      <c r="G3" s="53">
         <v>44074</v>
       </c>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="72"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="54"/>
       <c r="M3" s="4"/>
       <c r="N3" s="5"/>
       <c r="R3" s="4"/>
@@ -32931,13 +32725,13 @@
       <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
     </row>
     <row r="6" ht="3" customHeight="1">
       <c r="D6" s="8"/>
@@ -32964,26 +32758,26 @@
       <c r="C7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="66" t="s">
+      <c r="D7" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="67"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="66" t="s">
+      <c r="E7" s="57"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="67"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="66" t="s">
+      <c r="H7" s="57"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="67"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="66" t="s">
+      <c r="K7" s="57"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="67"/>
-      <c r="O7" s="68"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="58"/>
       <c r="P7" s="35" t="s">
         <v>9</v>
       </c>
@@ -33004,26 +32798,26 @@
         <f ref="C8:C35" t="shared" si="0">WEEKDAY(B8)</f>
         <v>7</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="52"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="51" t="s">
+      <c r="E8" s="60"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="52"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="51" t="s">
+      <c r="H8" s="60"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="52"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="77" t="s">
+      <c r="K8" s="60"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="N8" s="52"/>
-      <c r="O8" s="53"/>
+      <c r="N8" s="60"/>
+      <c r="O8" s="61"/>
       <c r="P8" s="47"/>
       <c r="Q8" s="47"/>
       <c r="R8" s="44" t="s">
@@ -33043,26 +32837,26 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="52"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="51" t="s">
+      <c r="E9" s="60"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="52"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="51" t="s">
+      <c r="H9" s="60"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="52"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="77" t="s">
+      <c r="K9" s="60"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="N9" s="52"/>
-      <c r="O9" s="53"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="61"/>
       <c r="P9" s="48"/>
       <c r="Q9" s="48"/>
       <c r="R9" s="43" t="s">
@@ -33081,27 +32875,27 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D10" s="51">
+      <c r="D10" s="59">
         <v>0</v>
       </c>
-      <c r="E10" s="52"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="51">
+      <c r="E10" s="60"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="59">
         <v>0</v>
       </c>
-      <c r="H10" s="52"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="51">
+      <c r="H10" s="60"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="59">
         <v>0</v>
       </c>
-      <c r="K10" s="52"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="77">
+      <c r="K10" s="60"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="59">
         <f>G10-D10-J10</f>
         <v>0</v>
       </c>
-      <c r="N10" s="52"/>
-      <c r="O10" s="53"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="61"/>
       <c r="P10" s="48"/>
       <c r="Q10" s="48"/>
       <c r="R10" s="20"/>
@@ -33118,27 +32912,27 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D11" s="51">
+      <c r="D11" s="59">
         <v>0</v>
       </c>
-      <c r="E11" s="52"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="51">
+      <c r="E11" s="60"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="59">
         <v>0</v>
       </c>
-      <c r="H11" s="52"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="51">
+      <c r="H11" s="60"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="59">
         <v>0</v>
       </c>
-      <c r="K11" s="52"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="77">
+      <c r="K11" s="60"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="59">
         <f>G11-D11-J11</f>
         <v>0</v>
       </c>
-      <c r="N11" s="52"/>
-      <c r="O11" s="53"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="61"/>
       <c r="P11" s="48" t="s">
         <v>12</v>
       </c>
@@ -33157,27 +32951,27 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D12" s="51">
+      <c r="D12" s="59">
         <v>0</v>
       </c>
-      <c r="E12" s="52"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="51">
+      <c r="E12" s="60"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="59">
         <v>0</v>
       </c>
-      <c r="H12" s="52"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="51">
+      <c r="H12" s="60"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="59">
         <v>0</v>
       </c>
-      <c r="K12" s="52"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="77">
+      <c r="K12" s="60"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="59">
         <f>G12-D12-J12</f>
         <v>0</v>
       </c>
-      <c r="N12" s="52"/>
-      <c r="O12" s="53"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="61"/>
       <c r="P12" s="49" t="s">
         <v>18</v>
       </c>
@@ -33196,27 +32990,27 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D13" s="51">
+      <c r="D13" s="59">
         <v>0</v>
       </c>
-      <c r="E13" s="52"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="51">
+      <c r="E13" s="60"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="59">
         <v>0</v>
       </c>
-      <c r="H13" s="52"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="51">
+      <c r="H13" s="60"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="59">
         <v>0</v>
       </c>
-      <c r="K13" s="52"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="77">
+      <c r="K13" s="60"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="59">
         <f>G13-D13-J13</f>
         <v>0</v>
       </c>
-      <c r="N13" s="52"/>
-      <c r="O13" s="53"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="61"/>
       <c r="P13" s="48"/>
       <c r="Q13" s="48"/>
       <c r="R13" s="20"/>
@@ -33233,27 +33027,27 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D14" s="51">
+      <c r="D14" s="59">
         <v>0</v>
       </c>
-      <c r="E14" s="52"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="51">
+      <c r="E14" s="60"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="59">
         <v>0</v>
       </c>
-      <c r="H14" s="52"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="51">
+      <c r="H14" s="60"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="59">
         <v>0</v>
       </c>
-      <c r="K14" s="52"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="77">
+      <c r="K14" s="60"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="59">
         <f>G14-D14-J14</f>
         <v>0</v>
       </c>
-      <c r="N14" s="52"/>
-      <c r="O14" s="53"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="61"/>
       <c r="P14" s="48" t="s">
         <v>12</v>
       </c>
@@ -33272,26 +33066,26 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="52"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="51" t="s">
+      <c r="E15" s="60"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="52"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="51" t="s">
+      <c r="H15" s="60"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="K15" s="52"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="77" t="s">
+      <c r="K15" s="60"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="N15" s="52"/>
-      <c r="O15" s="53"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="61"/>
       <c r="P15" s="48" t="s">
         <v>12</v>
       </c>
@@ -33312,26 +33106,26 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="D16" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="52"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="51" t="s">
+      <c r="E16" s="60"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="52"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="51" t="s">
+      <c r="H16" s="60"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="K16" s="52"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="77" t="s">
+      <c r="K16" s="60"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="N16" s="52"/>
-      <c r="O16" s="53"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="61"/>
       <c r="P16" s="48"/>
       <c r="Q16" s="48"/>
       <c r="R16" s="38" t="s">
@@ -33350,30 +33144,30 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D17" s="51" t="s">
+      <c r="D17" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="52"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="51" t="s">
+      <c r="E17" s="60"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="52"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="51" t="s">
+      <c r="H17" s="60"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="K17" s="52"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="77" t="s">
+      <c r="K17" s="60"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="N17" s="52"/>
-      <c r="O17" s="53"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="61"/>
       <c r="P17" s="48"/>
       <c r="Q17" s="48"/>
       <c r="R17" s="38" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="S17" s="16"/>
       <c r="T17" s="17"/>
@@ -33388,26 +33182,26 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D18" s="51" t="s">
+      <c r="D18" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="52"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="51" t="s">
+      <c r="E18" s="60"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="52"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="51" t="s">
+      <c r="H18" s="60"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="K18" s="52"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="77" t="s">
+      <c r="K18" s="60"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="N18" s="52"/>
-      <c r="O18" s="53"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="61"/>
       <c r="P18" s="48" t="s">
         <v>12</v>
       </c>
@@ -33415,7 +33209,7 @@
         <v>12</v>
       </c>
       <c r="R18" s="38" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="S18" s="16"/>
       <c r="T18" s="17"/>
@@ -33430,32 +33224,32 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D19" s="51" t="s">
+      <c r="D19" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="52"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="51" t="s">
+      <c r="E19" s="60"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="52"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="51" t="s">
+      <c r="H19" s="60"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="K19" s="52"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="77" t="s">
+      <c r="K19" s="60"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="N19" s="52"/>
-      <c r="O19" s="53"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="61"/>
       <c r="P19" s="48" t="s">
         <v>12</v>
       </c>
       <c r="Q19" s="48"/>
       <c r="R19" s="38" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="S19" s="16"/>
       <c r="T19" s="17"/>
@@ -33470,30 +33264,30 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D20" s="51" t="s">
+      <c r="D20" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="52"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="51" t="s">
+      <c r="E20" s="60"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="H20" s="52"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="51" t="s">
+      <c r="H20" s="60"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="K20" s="52"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="77" t="s">
+      <c r="K20" s="60"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="N20" s="52"/>
-      <c r="O20" s="53"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="61"/>
       <c r="P20" s="48"/>
       <c r="Q20" s="48"/>
       <c r="R20" s="38" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="S20" s="16"/>
       <c r="T20" s="17"/>
@@ -33508,30 +33302,30 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D21" s="51" t="s">
+      <c r="D21" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="52"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="51" t="s">
+      <c r="E21" s="60"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="52"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="52"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="77" t="s">
+      <c r="H21" s="60"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="60"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="N21" s="52"/>
-      <c r="O21" s="53"/>
+      <c r="N21" s="60"/>
+      <c r="O21" s="61"/>
       <c r="P21" s="48"/>
       <c r="Q21" s="48"/>
       <c r="R21" s="38" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="S21" s="16"/>
       <c r="T21" s="17"/>
@@ -33546,26 +33340,26 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D22" s="51" t="s">
+      <c r="D22" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="52"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="51" t="s">
+      <c r="E22" s="60"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="52"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="51" t="s">
+      <c r="H22" s="60"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="K22" s="52"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="77" t="s">
+      <c r="K22" s="60"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="N22" s="52"/>
-      <c r="O22" s="53"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="61"/>
       <c r="P22" s="48"/>
       <c r="Q22" s="48"/>
       <c r="R22" s="38" t="s">
@@ -33584,26 +33378,26 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D23" s="51" t="s">
+      <c r="D23" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="52"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="51" t="s">
+      <c r="E23" s="60"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="52"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="51" t="s">
+      <c r="H23" s="60"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="K23" s="52"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="77" t="s">
+      <c r="K23" s="60"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="N23" s="52"/>
-      <c r="O23" s="53"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="61"/>
       <c r="P23" s="48"/>
       <c r="Q23" s="48"/>
       <c r="R23" s="38" t="s">
@@ -33624,27 +33418,27 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D24" s="51">
+      <c r="D24" s="59">
         <v>0</v>
       </c>
-      <c r="E24" s="52"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="51">
+      <c r="E24" s="60"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="59">
         <v>0</v>
       </c>
-      <c r="H24" s="52"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="51">
+      <c r="H24" s="60"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="59">
         <v>0</v>
       </c>
-      <c r="K24" s="52"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="77">
+      <c r="K24" s="60"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="59">
         <f>G24-D24-J24</f>
         <v>0</v>
       </c>
-      <c r="N24" s="52"/>
-      <c r="O24" s="53"/>
+      <c r="N24" s="60"/>
+      <c r="O24" s="61"/>
       <c r="P24" s="48"/>
       <c r="Q24" s="48"/>
       <c r="R24" s="38" t="s">
@@ -33663,27 +33457,27 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D25" s="51">
+      <c r="D25" s="59">
         <v>0</v>
       </c>
-      <c r="E25" s="52"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="51">
+      <c r="E25" s="60"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="59">
         <v>0</v>
       </c>
-      <c r="H25" s="52"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="51">
+      <c r="H25" s="60"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="59">
         <v>0</v>
       </c>
-      <c r="K25" s="52"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="77">
+      <c r="K25" s="60"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="59">
         <f>G25-D25-J25</f>
         <v>0</v>
       </c>
-      <c r="N25" s="52"/>
-      <c r="O25" s="53"/>
+      <c r="N25" s="60"/>
+      <c r="O25" s="61"/>
       <c r="P25" s="49" t="s">
         <v>18</v>
       </c>
@@ -33704,27 +33498,27 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D26" s="51">
+      <c r="D26" s="59">
         <v>0</v>
       </c>
-      <c r="E26" s="52"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="51">
+      <c r="E26" s="60"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="59">
         <v>0</v>
       </c>
-      <c r="H26" s="52"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="51">
+      <c r="H26" s="60"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="59">
         <v>0</v>
       </c>
-      <c r="K26" s="52"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="77">
+      <c r="K26" s="60"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="59">
         <f>G26-D26-J26</f>
         <v>0</v>
       </c>
-      <c r="N26" s="52"/>
-      <c r="O26" s="53"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="61"/>
       <c r="P26" s="48" t="s">
         <v>12</v>
       </c>
@@ -33745,27 +33539,27 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D27" s="51">
+      <c r="D27" s="59">
         <v>0</v>
       </c>
-      <c r="E27" s="52"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="51">
+      <c r="E27" s="60"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="59">
         <v>0</v>
       </c>
-      <c r="H27" s="52"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="51">
+      <c r="H27" s="60"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="59">
         <v>0</v>
       </c>
-      <c r="K27" s="52"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="77">
+      <c r="K27" s="60"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="59">
         <f>G27-D27-J27</f>
         <v>0</v>
       </c>
-      <c r="N27" s="52"/>
-      <c r="O27" s="53"/>
+      <c r="N27" s="60"/>
+      <c r="O27" s="61"/>
       <c r="P27" s="48"/>
       <c r="Q27" s="48"/>
       <c r="R27" s="20"/>
@@ -33782,27 +33576,27 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D28" s="51">
+      <c r="D28" s="59">
         <v>0</v>
       </c>
-      <c r="E28" s="52"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="51">
+      <c r="E28" s="60"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="59">
         <v>0</v>
       </c>
-      <c r="H28" s="52"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="51">
+      <c r="H28" s="60"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="59">
         <v>0</v>
       </c>
-      <c r="K28" s="52"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="77">
+      <c r="K28" s="60"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="59">
         <f>G28-D28-J28</f>
         <v>0</v>
       </c>
-      <c r="N28" s="52"/>
-      <c r="O28" s="53"/>
+      <c r="N28" s="60"/>
+      <c r="O28" s="61"/>
       <c r="P28" s="48" t="s">
         <v>12</v>
       </c>
@@ -33821,26 +33615,26 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D29" s="51" t="s">
+      <c r="D29" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="52"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="51" t="s">
+      <c r="E29" s="60"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="H29" s="52"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="51" t="s">
+      <c r="H29" s="60"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="K29" s="52"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="77" t="s">
+      <c r="K29" s="60"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="N29" s="52"/>
-      <c r="O29" s="53"/>
+      <c r="N29" s="60"/>
+      <c r="O29" s="61"/>
       <c r="P29" s="48"/>
       <c r="Q29" s="48"/>
       <c r="R29" s="20"/>
@@ -33857,26 +33651,26 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D30" s="51" t="s">
+      <c r="D30" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="52"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="51" t="s">
+      <c r="E30" s="60"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="H30" s="52"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="51" t="s">
+      <c r="H30" s="60"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="K30" s="52"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="77" t="s">
+      <c r="K30" s="60"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="N30" s="52"/>
-      <c r="O30" s="53"/>
+      <c r="N30" s="60"/>
+      <c r="O30" s="61"/>
       <c r="P30" s="48" t="s">
         <v>12</v>
       </c>
@@ -33895,27 +33689,27 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D31" s="51">
+      <c r="D31" s="59">
         <v>0</v>
       </c>
-      <c r="E31" s="52"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="51">
+      <c r="E31" s="60"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="59">
         <v>0</v>
       </c>
-      <c r="H31" s="52"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="51">
+      <c r="H31" s="60"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="59">
         <v>0</v>
       </c>
-      <c r="K31" s="52"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="77">
+      <c r="K31" s="60"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="59">
         <f>G31-D31-J31</f>
         <v>0</v>
       </c>
-      <c r="N31" s="52"/>
-      <c r="O31" s="53"/>
+      <c r="N31" s="60"/>
+      <c r="O31" s="61"/>
       <c r="P31" s="48"/>
       <c r="Q31" s="48"/>
       <c r="R31" s="20"/>
@@ -33932,27 +33726,27 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D32" s="51">
+      <c r="D32" s="59">
         <v>0</v>
       </c>
-      <c r="E32" s="52"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="51">
+      <c r="E32" s="60"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="59">
         <v>0</v>
       </c>
-      <c r="H32" s="52"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="51">
+      <c r="H32" s="60"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="59">
         <v>0</v>
       </c>
-      <c r="K32" s="52"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="77">
+      <c r="K32" s="60"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="59">
         <f>G32-D32-J32</f>
         <v>0</v>
       </c>
-      <c r="N32" s="52"/>
-      <c r="O32" s="53"/>
+      <c r="N32" s="60"/>
+      <c r="O32" s="61"/>
       <c r="P32" s="48"/>
       <c r="Q32" s="48"/>
       <c r="R32" s="20"/>
@@ -33969,27 +33763,27 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D33" s="51">
+      <c r="D33" s="59">
         <v>0</v>
       </c>
-      <c r="E33" s="52"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="51">
+      <c r="E33" s="60"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="59">
         <v>0</v>
       </c>
-      <c r="H33" s="52"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="51">
+      <c r="H33" s="60"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="59">
         <v>0</v>
       </c>
-      <c r="K33" s="52"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="77">
+      <c r="K33" s="60"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="59">
         <f>G33-D33-J33</f>
         <v>0</v>
       </c>
-      <c r="N33" s="52"/>
-      <c r="O33" s="53"/>
+      <c r="N33" s="60"/>
+      <c r="O33" s="61"/>
       <c r="P33" s="48" t="s">
         <v>12</v>
       </c>
@@ -34008,27 +33802,27 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D34" s="51">
+      <c r="D34" s="59">
         <v>0</v>
       </c>
-      <c r="E34" s="52"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="51">
+      <c r="E34" s="60"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="59">
         <v>0</v>
       </c>
-      <c r="H34" s="52"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="51">
+      <c r="H34" s="60"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="59">
         <v>0</v>
       </c>
-      <c r="K34" s="52"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="77">
+      <c r="K34" s="60"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="59">
         <f>G34-D34-J34</f>
         <v>0</v>
       </c>
-      <c r="N34" s="52"/>
-      <c r="O34" s="53"/>
+      <c r="N34" s="60"/>
+      <c r="O34" s="61"/>
       <c r="P34" s="48" t="s">
         <v>12</v>
       </c>
@@ -34047,27 +33841,27 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D35" s="51">
+      <c r="D35" s="59">
         <v>0</v>
       </c>
-      <c r="E35" s="52"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="51">
+      <c r="E35" s="60"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="59">
         <v>0</v>
       </c>
-      <c r="H35" s="52"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="51">
+      <c r="H35" s="60"/>
+      <c r="I35" s="61"/>
+      <c r="J35" s="59">
         <v>0</v>
       </c>
-      <c r="K35" s="52"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="77">
+      <c r="K35" s="60"/>
+      <c r="L35" s="61"/>
+      <c r="M35" s="59">
         <f>G35-D35-J35</f>
         <v>0</v>
       </c>
-      <c r="N35" s="52"/>
-      <c r="O35" s="53"/>
+      <c r="N35" s="60"/>
+      <c r="O35" s="61"/>
       <c r="P35" s="48"/>
       <c r="Q35" s="48"/>
       <c r="R35" s="20"/>
@@ -34084,26 +33878,26 @@
         <f>WEEKDAY(B36)</f>
         <v>7</v>
       </c>
-      <c r="D36" s="51" t="s">
+      <c r="D36" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="52"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="51" t="s">
+      <c r="E36" s="60"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="H36" s="52"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="51" t="s">
+      <c r="H36" s="60"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="K36" s="52"/>
-      <c r="L36" s="53"/>
-      <c r="M36" s="77" t="s">
+      <c r="K36" s="60"/>
+      <c r="L36" s="61"/>
+      <c r="M36" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="N36" s="52"/>
-      <c r="O36" s="53"/>
+      <c r="N36" s="60"/>
+      <c r="O36" s="61"/>
       <c r="P36" s="48" t="s">
         <v>12</v>
       </c>
@@ -34122,26 +33916,26 @@
         <f>WEEKDAY(B37)</f>
         <v>1</v>
       </c>
-      <c r="D37" s="51" t="s">
+      <c r="D37" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="E37" s="52"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="51" t="s">
+      <c r="E37" s="60"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="H37" s="52"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="51" t="s">
+      <c r="H37" s="60"/>
+      <c r="I37" s="61"/>
+      <c r="J37" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="K37" s="52"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="77" t="s">
+      <c r="K37" s="60"/>
+      <c r="L37" s="61"/>
+      <c r="M37" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="N37" s="52"/>
-      <c r="O37" s="53"/>
+      <c r="N37" s="60"/>
+      <c r="O37" s="61"/>
       <c r="P37" s="49" t="s">
         <v>18</v>
       </c>
@@ -34160,27 +33954,27 @@
         <f>WEEKDAY(B38)</f>
         <v>2</v>
       </c>
-      <c r="D38" s="78">
+      <c r="D38" s="77">
         <v>0</v>
       </c>
-      <c r="E38" s="79"/>
-      <c r="F38" s="80"/>
-      <c r="G38" s="78">
+      <c r="E38" s="78"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="77">
         <v>0</v>
       </c>
-      <c r="H38" s="79"/>
-      <c r="I38" s="80"/>
-      <c r="J38" s="78">
+      <c r="H38" s="78"/>
+      <c r="I38" s="79"/>
+      <c r="J38" s="77">
         <v>0</v>
       </c>
-      <c r="K38" s="79"/>
-      <c r="L38" s="80"/>
-      <c r="M38" s="81">
+      <c r="K38" s="78"/>
+      <c r="L38" s="79"/>
+      <c r="M38" s="77">
         <f>G38-D38-J38</f>
         <v>0</v>
       </c>
-      <c r="N38" s="79"/>
-      <c r="O38" s="80"/>
+      <c r="N38" s="78"/>
+      <c r="O38" s="79"/>
       <c r="P38" s="48"/>
       <c r="Q38" s="48"/>
       <c r="R38" s="20"/>
@@ -34193,7 +33987,7 @@
       <c r="C39" s="24"/>
       <c r="D39" s="25"/>
       <c r="E39" s="40" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F39" s="25"/>
       <c r="G39" s="25"/>
@@ -34204,12 +33998,12 @@
         <v>14</v>
       </c>
       <c r="L39" s="25"/>
-      <c r="M39" s="63">
+      <c r="M39" s="64">
         <f>SUM(M8:M38)</f>
         <v>0</v>
       </c>
-      <c r="N39" s="63"/>
-      <c r="O39" s="63"/>
+      <c r="N39" s="64"/>
+      <c r="O39" s="64"/>
       <c r="P39" s="37" t="s">
         <v>12</v>
       </c>
@@ -34252,23 +34046,23 @@
       <c r="S41" s="8"/>
     </row>
     <row r="42" ht="22.5" customHeight="1">
-      <c r="B42" s="64"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="65"/>
-      <c r="F42" s="65"/>
-      <c r="G42" s="65"/>
-      <c r="H42" s="65"/>
-      <c r="I42" s="65"/>
-      <c r="J42" s="65"/>
-      <c r="K42" s="65"/>
-      <c r="L42" s="65"/>
-      <c r="M42" s="65"/>
-      <c r="N42" s="65"/>
-      <c r="O42" s="65"/>
-      <c r="P42" s="65"/>
-      <c r="Q42" s="65"/>
-      <c r="R42" s="65"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="66"/>
+      <c r="J42" s="66"/>
+      <c r="K42" s="66"/>
+      <c r="L42" s="66"/>
+      <c r="M42" s="66"/>
+      <c r="N42" s="66"/>
+      <c r="O42" s="66"/>
+      <c r="P42" s="66"/>
+      <c r="Q42" s="66"/>
+      <c r="R42" s="66"/>
       <c r="S42" s="9"/>
     </row>
     <row r="43" ht="7.5" customHeight="1">
@@ -34290,36 +34084,36 @@
       <c r="S43" s="30"/>
     </row>
     <row r="44" ht="27" customHeight="1" s="31" customFormat="1">
-      <c r="B44" s="55" t="s">
+      <c r="B44" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="C44" s="56"/>
-      <c r="D44" s="57">
+      <c r="C44" s="68"/>
+      <c r="D44" s="70">
         <v>5</v>
       </c>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="55" t="s">
+      <c r="E44" s="70"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="H44" s="58"/>
-      <c r="I44" s="56"/>
-      <c r="J44" s="59">
+      <c r="H44" s="71"/>
+      <c r="I44" s="68"/>
+      <c r="J44" s="72">
         <f>M39</f>
         <v>0</v>
       </c>
-      <c r="K44" s="57"/>
-      <c r="L44" s="57"/>
-      <c r="M44" s="60"/>
-      <c r="N44" s="55" t="s">
+      <c r="K44" s="70"/>
+      <c r="L44" s="70"/>
+      <c r="M44" s="73"/>
+      <c r="N44" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="O44" s="58"/>
-      <c r="P44" s="61" t="str">
+      <c r="O44" s="71"/>
+      <c r="P44" s="62" t="str">
         <f>IF((J44-D44)&gt;0,TEXT(J44-D44,"[h]:mm"),TEXT(D44-J44,"-[h]:mm"))</f>
         <v>-120:00</v>
       </c>
-      <c r="Q44" s="62"/>
+      <c r="Q44" s="63"/>
       <c r="R44" s="36"/>
       <c r="S44" s="36"/>
     </row>
@@ -34354,10 +34148,10 @@
       <c r="P46" s="5"/>
       <c r="Q46" s="5"/>
     </row>
-    <row r="47" ht="11.4" s="33" customFormat="1"/>
-    <row r="48" ht="13.2" s="34" customFormat="1">
-      <c r="K48" s="54"/>
-      <c r="L48" s="54"/>
+    <row r="47" ht="12" s="33" customFormat="1"/>
+    <row r="48" ht="13.5" s="34" customFormat="1">
+      <c r="K48" s="69"/>
+      <c r="L48" s="69"/>
     </row>
     <row r="49">
       <c r="D49" s="8"/>
@@ -48131,10 +47925,135 @@
     </row>
   </sheetData>
   <mergeCells>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="B42:R42"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:O11"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="J10:L10"/>
     <mergeCell ref="M10:O10"/>
+    <mergeCell ref="D9:F9"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="C5:I5"/>
@@ -48146,137 +48065,12 @@
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="J8:L8"/>
     <mergeCell ref="M8:O8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="B42:R42"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="G37:I37"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.17" top="0.26" bottom="0.19685039370078741" header="0.24" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/ConsoleApp2/bin/Debug/netcoreapp3.1/Data/FlextimeSheetForm20200601.xlsx
+++ b/ConsoleApp2/bin/Debug/netcoreapp3.1/Data/FlextimeSheetForm20200601.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>タイムシート</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>氏名：</t>
+  </si>
+  <si>
+    <t>Akiyama</t>
   </si>
   <si>
     <t>日付</t>
@@ -73,7 +76,76 @@
     <t>備考</t>
   </si>
   <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>19:00</t>
+  </si>
+  <si>
+    <t>01:00</t>
+  </si>
+  <si>
+    <t>08:30</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>19:45</t>
+  </si>
+  <si>
+    <t>02:45</t>
+  </si>
+  <si>
+    <t>09:30</t>
+  </si>
+  <si>
+    <t>20:00</t>
+  </si>
+  <si>
+    <t>01:30</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>08:00</t>
+  </si>
+  <si>
+    <t>18:45</t>
+  </si>
+  <si>
+    <t>09:40</t>
+  </si>
+  <si>
+    <t>19:30</t>
+  </si>
+  <si>
+    <t>09:45</t>
+  </si>
+  <si>
+    <t>18:30</t>
+  </si>
+  <si>
+    <t>09:15</t>
+  </si>
+  <si>
+    <t>02:00</t>
+  </si>
+  <si>
+    <t>01:15</t>
+  </si>
+  <si>
+    <t>08:45</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>16:30</t>
+  </si>
+  <si>
+    <t>18:15</t>
   </si>
   <si>
     <t>22</t>
@@ -154,7 +226,7 @@
     <numFmt numFmtId="173" formatCode="[h]:mm"/>
     <numFmt numFmtId="174" formatCode="[h]:mm;[Red]\-[h]:mm"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -244,6 +316,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -259,7 +338,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -517,6 +596,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -526,7 +618,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="84">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -771,6 +863,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" applyNumberFormat="1" fontId="15" applyFont="1" fillId="0" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" applyNumberFormat="1" fontId="15" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" applyNumberFormat="1" fontId="15" applyFont="1" fillId="0" applyFill="1" borderId="21" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1978,7 +2082,9 @@
       <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="55"/>
+      <c r="C5" s="80" t="s">
+        <v>3</v>
+      </c>
       <c r="D5" s="55"/>
       <c r="E5" s="55"/>
       <c r="F5" s="55"/>
@@ -2006,39 +2112,39 @@
     </row>
     <row r="7" ht="16.5" customHeight="1">
       <c r="B7" s="11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E7" s="57"/>
       <c r="F7" s="58"/>
       <c r="G7" s="56" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H7" s="57"/>
       <c r="I7" s="58"/>
       <c r="J7" s="56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K7" s="57"/>
       <c r="L7" s="58"/>
       <c r="M7" s="56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N7" s="57"/>
       <c r="O7" s="58"/>
       <c r="P7" s="35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q7" s="35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R7" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S7" s="13"/>
     </row>
@@ -2051,18 +2157,18 @@
         <f ref="C8:C37" t="shared" si="0">WEEKDAY(B8)</f>
         <v>2</v>
       </c>
-      <c r="D8" s="59">
-        <v>0</v>
+      <c r="D8" s="81" t="s">
+        <v>13</v>
       </c>
       <c r="E8" s="60"/>
       <c r="F8" s="61"/>
-      <c r="G8" s="59">
-        <v>0</v>
+      <c r="G8" s="81" t="s">
+        <v>14</v>
       </c>
       <c r="H8" s="60"/>
       <c r="I8" s="61"/>
-      <c r="J8" s="59">
-        <v>0</v>
+      <c r="J8" s="81" t="s">
+        <v>15</v>
       </c>
       <c r="K8" s="60"/>
       <c r="L8" s="61"/>
@@ -2087,18 +2193,18 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D9" s="59">
-        <v>0</v>
+      <c r="D9" s="82" t="s">
+        <v>16</v>
       </c>
       <c r="E9" s="60"/>
       <c r="F9" s="61"/>
-      <c r="G9" s="59">
-        <v>0</v>
+      <c r="G9" s="82" t="s">
+        <v>14</v>
       </c>
       <c r="H9" s="60"/>
       <c r="I9" s="61"/>
-      <c r="J9" s="59">
-        <v>0</v>
+      <c r="J9" s="82" t="s">
+        <v>15</v>
       </c>
       <c r="K9" s="60"/>
       <c r="L9" s="61"/>
@@ -2123,18 +2229,18 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D10" s="59">
-        <v>0</v>
+      <c r="D10" s="82" t="s">
+        <v>17</v>
       </c>
       <c r="E10" s="60"/>
       <c r="F10" s="61"/>
-      <c r="G10" s="59">
-        <v>0</v>
+      <c r="G10" s="82" t="s">
+        <v>18</v>
       </c>
       <c r="H10" s="60"/>
       <c r="I10" s="61"/>
-      <c r="J10" s="59">
-        <v>0</v>
+      <c r="J10" s="82" t="s">
+        <v>19</v>
       </c>
       <c r="K10" s="60"/>
       <c r="L10" s="61"/>
@@ -2159,18 +2265,18 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D11" s="59">
-        <v>0</v>
+      <c r="D11" s="82" t="s">
+        <v>20</v>
       </c>
       <c r="E11" s="60"/>
       <c r="F11" s="61"/>
-      <c r="G11" s="59">
-        <v>0</v>
+      <c r="G11" s="82" t="s">
+        <v>21</v>
       </c>
       <c r="H11" s="60"/>
       <c r="I11" s="61"/>
-      <c r="J11" s="59">
-        <v>0</v>
+      <c r="J11" s="82" t="s">
+        <v>22</v>
       </c>
       <c r="K11" s="60"/>
       <c r="L11" s="61"/>
@@ -2181,10 +2287,10 @@
       <c r="N11" s="60"/>
       <c r="O11" s="61"/>
       <c r="P11" s="48" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Q11" s="48" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="R11" s="20"/>
       <c r="S11" s="16"/>
@@ -2199,18 +2305,18 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D12" s="59">
-        <v>0</v>
+      <c r="D12" s="82" t="s">
+        <v>20</v>
       </c>
       <c r="E12" s="60"/>
       <c r="F12" s="61"/>
-      <c r="G12" s="59">
-        <v>0</v>
+      <c r="G12" s="82" t="s">
+        <v>14</v>
       </c>
       <c r="H12" s="60"/>
       <c r="I12" s="61"/>
-      <c r="J12" s="59">
-        <v>0</v>
+      <c r="J12" s="82" t="s">
+        <v>22</v>
       </c>
       <c r="K12" s="60"/>
       <c r="L12" s="61"/>
@@ -2235,23 +2341,17 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D13" s="59" t="s">
-        <v>12</v>
-      </c>
+      <c r="D13" s="82"/>
       <c r="E13" s="60"/>
       <c r="F13" s="61"/>
-      <c r="G13" s="59" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" s="82"/>
       <c r="H13" s="60"/>
       <c r="I13" s="61"/>
-      <c r="J13" s="59" t="s">
-        <v>12</v>
-      </c>
+      <c r="J13" s="82"/>
       <c r="K13" s="60"/>
       <c r="L13" s="61"/>
       <c r="M13" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="N13" s="60"/>
       <c r="O13" s="61"/>
@@ -2270,23 +2370,17 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D14" s="59" t="s">
-        <v>12</v>
-      </c>
+      <c r="D14" s="82"/>
       <c r="E14" s="60"/>
       <c r="F14" s="61"/>
-      <c r="G14" s="59" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" s="82"/>
       <c r="H14" s="60"/>
       <c r="I14" s="61"/>
-      <c r="J14" s="59" t="s">
-        <v>12</v>
-      </c>
+      <c r="J14" s="82"/>
       <c r="K14" s="60"/>
       <c r="L14" s="61"/>
       <c r="M14" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="N14" s="60"/>
       <c r="O14" s="61"/>
@@ -2305,18 +2399,18 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D15" s="59">
-        <v>0</v>
+      <c r="D15" s="82" t="s">
+        <v>24</v>
       </c>
       <c r="E15" s="60"/>
       <c r="F15" s="61"/>
-      <c r="G15" s="59">
-        <v>0</v>
+      <c r="G15" s="82" t="s">
+        <v>25</v>
       </c>
       <c r="H15" s="60"/>
       <c r="I15" s="61"/>
-      <c r="J15" s="59">
-        <v>0</v>
+      <c r="J15" s="82" t="s">
+        <v>15</v>
       </c>
       <c r="K15" s="60"/>
       <c r="L15" s="61"/>
@@ -2341,18 +2435,18 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D16" s="59">
-        <v>0</v>
+      <c r="D16" s="82" t="s">
+        <v>24</v>
       </c>
       <c r="E16" s="60"/>
       <c r="F16" s="61"/>
-      <c r="G16" s="59">
-        <v>0</v>
+      <c r="G16" s="82" t="s">
+        <v>14</v>
       </c>
       <c r="H16" s="60"/>
       <c r="I16" s="61"/>
-      <c r="J16" s="59">
-        <v>0</v>
+      <c r="J16" s="82" t="s">
+        <v>15</v>
       </c>
       <c r="K16" s="60"/>
       <c r="L16" s="61"/>
@@ -2377,18 +2471,18 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D17" s="59">
-        <v>0</v>
+      <c r="D17" s="82" t="s">
+        <v>26</v>
       </c>
       <c r="E17" s="60"/>
       <c r="F17" s="61"/>
-      <c r="G17" s="59">
-        <v>0</v>
+      <c r="G17" s="82" t="s">
+        <v>14</v>
       </c>
       <c r="H17" s="60"/>
       <c r="I17" s="61"/>
-      <c r="J17" s="59">
-        <v>0</v>
+      <c r="J17" s="82" t="s">
+        <v>22</v>
       </c>
       <c r="K17" s="60"/>
       <c r="L17" s="61"/>
@@ -2399,7 +2493,7 @@
       <c r="N17" s="60"/>
       <c r="O17" s="61"/>
       <c r="P17" s="48" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Q17" s="48"/>
       <c r="R17" s="20"/>
@@ -2415,18 +2509,18 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D18" s="59">
-        <v>0</v>
+      <c r="D18" s="82" t="s">
+        <v>13</v>
       </c>
       <c r="E18" s="60"/>
       <c r="F18" s="61"/>
-      <c r="G18" s="59">
-        <v>0</v>
+      <c r="G18" s="82" t="s">
+        <v>27</v>
       </c>
       <c r="H18" s="60"/>
       <c r="I18" s="61"/>
-      <c r="J18" s="59">
-        <v>0</v>
+      <c r="J18" s="82" t="s">
+        <v>15</v>
       </c>
       <c r="K18" s="60"/>
       <c r="L18" s="61"/>
@@ -2437,7 +2531,7 @@
       <c r="N18" s="60"/>
       <c r="O18" s="61"/>
       <c r="P18" s="48" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="48"/>
       <c r="R18" s="38"/>
@@ -2453,18 +2547,18 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D19" s="59">
-        <v>0</v>
+      <c r="D19" s="82" t="s">
+        <v>28</v>
       </c>
       <c r="E19" s="60"/>
       <c r="F19" s="61"/>
-      <c r="G19" s="59">
-        <v>0</v>
+      <c r="G19" s="82" t="s">
+        <v>29</v>
       </c>
       <c r="H19" s="60"/>
       <c r="I19" s="61"/>
-      <c r="J19" s="59">
-        <v>0</v>
+      <c r="J19" s="82" t="s">
+        <v>15</v>
       </c>
       <c r="K19" s="60"/>
       <c r="L19" s="61"/>
@@ -2475,10 +2569,10 @@
       <c r="N19" s="60"/>
       <c r="O19" s="61"/>
       <c r="P19" s="48" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Q19" s="48" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="R19" s="38"/>
       <c r="S19" s="16"/>
@@ -2493,23 +2587,17 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D20" s="59" t="s">
-        <v>12</v>
-      </c>
+      <c r="D20" s="82"/>
       <c r="E20" s="60"/>
       <c r="F20" s="61"/>
-      <c r="G20" s="59" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" s="82"/>
       <c r="H20" s="60"/>
       <c r="I20" s="61"/>
-      <c r="J20" s="59" t="s">
-        <v>12</v>
-      </c>
+      <c r="J20" s="82"/>
       <c r="K20" s="60"/>
       <c r="L20" s="61"/>
       <c r="M20" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="N20" s="60"/>
       <c r="O20" s="61"/>
@@ -2528,30 +2616,24 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D21" s="59" t="s">
-        <v>12</v>
-      </c>
+      <c r="D21" s="82"/>
       <c r="E21" s="60"/>
       <c r="F21" s="61"/>
-      <c r="G21" s="59" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" s="82"/>
       <c r="H21" s="60"/>
       <c r="I21" s="61"/>
-      <c r="J21" s="59" t="s">
-        <v>12</v>
-      </c>
+      <c r="J21" s="82"/>
       <c r="K21" s="60"/>
       <c r="L21" s="61"/>
       <c r="M21" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="N21" s="60"/>
       <c r="O21" s="61"/>
       <c r="P21" s="48"/>
       <c r="Q21" s="48"/>
       <c r="R21" s="38" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="S21" s="16"/>
       <c r="T21" s="17"/>
@@ -2565,18 +2647,18 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D22" s="59">
-        <v>0</v>
+      <c r="D22" s="82" t="s">
+        <v>30</v>
       </c>
       <c r="E22" s="60"/>
       <c r="F22" s="61"/>
-      <c r="G22" s="59">
-        <v>0</v>
+      <c r="G22" s="82" t="s">
+        <v>14</v>
       </c>
       <c r="H22" s="60"/>
       <c r="I22" s="61"/>
-      <c r="J22" s="59">
-        <v>0</v>
+      <c r="J22" s="82" t="s">
+        <v>31</v>
       </c>
       <c r="K22" s="60"/>
       <c r="L22" s="61"/>
@@ -2601,18 +2683,18 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D23" s="59">
-        <v>0</v>
+      <c r="D23" s="82" t="s">
+        <v>28</v>
       </c>
       <c r="E23" s="60"/>
       <c r="F23" s="61"/>
-      <c r="G23" s="59">
-        <v>0</v>
+      <c r="G23" s="82" t="s">
+        <v>14</v>
       </c>
       <c r="H23" s="60"/>
       <c r="I23" s="61"/>
-      <c r="J23" s="59">
-        <v>0</v>
+      <c r="J23" s="82" t="s">
+        <v>32</v>
       </c>
       <c r="K23" s="60"/>
       <c r="L23" s="61"/>
@@ -2637,18 +2719,18 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D24" s="59">
-        <v>0</v>
+      <c r="D24" s="82" t="s">
+        <v>33</v>
       </c>
       <c r="E24" s="60"/>
       <c r="F24" s="61"/>
-      <c r="G24" s="59">
-        <v>0</v>
+      <c r="G24" s="82" t="s">
+        <v>14</v>
       </c>
       <c r="H24" s="60"/>
       <c r="I24" s="61"/>
-      <c r="J24" s="59">
-        <v>0</v>
+      <c r="J24" s="82" t="s">
+        <v>22</v>
       </c>
       <c r="K24" s="60"/>
       <c r="L24" s="61"/>
@@ -2673,18 +2755,18 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D25" s="59">
-        <v>0</v>
+      <c r="D25" s="82" t="s">
+        <v>13</v>
       </c>
       <c r="E25" s="60"/>
       <c r="F25" s="61"/>
-      <c r="G25" s="59">
-        <v>0</v>
+      <c r="G25" s="82" t="s">
+        <v>29</v>
       </c>
       <c r="H25" s="60"/>
       <c r="I25" s="61"/>
-      <c r="J25" s="59">
-        <v>0</v>
+      <c r="J25" s="82" t="s">
+        <v>22</v>
       </c>
       <c r="K25" s="60"/>
       <c r="L25" s="61"/>
@@ -2695,7 +2777,7 @@
       <c r="N25" s="60"/>
       <c r="O25" s="61"/>
       <c r="P25" s="48" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Q25" s="48"/>
       <c r="R25" s="20"/>
@@ -2711,18 +2793,18 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D26" s="59">
-        <v>0</v>
+      <c r="D26" s="82" t="s">
+        <v>13</v>
       </c>
       <c r="E26" s="60"/>
       <c r="F26" s="61"/>
-      <c r="G26" s="59">
-        <v>0</v>
+      <c r="G26" s="82" t="s">
+        <v>34</v>
       </c>
       <c r="H26" s="60"/>
       <c r="I26" s="61"/>
-      <c r="J26" s="59">
-        <v>0</v>
+      <c r="J26" s="82" t="s">
+        <v>15</v>
       </c>
       <c r="K26" s="60"/>
       <c r="L26" s="61"/>
@@ -2733,7 +2815,7 @@
       <c r="N26" s="60"/>
       <c r="O26" s="61"/>
       <c r="P26" s="48" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Q26" s="48"/>
       <c r="R26" s="20"/>
@@ -2749,28 +2831,22 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D27" s="59" t="s">
-        <v>12</v>
-      </c>
+      <c r="D27" s="82"/>
       <c r="E27" s="60"/>
       <c r="F27" s="61"/>
-      <c r="G27" s="59" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" s="82"/>
       <c r="H27" s="60"/>
       <c r="I27" s="61"/>
-      <c r="J27" s="59" t="s">
-        <v>12</v>
-      </c>
+      <c r="J27" s="82"/>
       <c r="K27" s="60"/>
       <c r="L27" s="61"/>
       <c r="M27" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="N27" s="60"/>
       <c r="O27" s="61"/>
       <c r="P27" s="48" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Q27" s="48"/>
       <c r="R27" s="20"/>
@@ -2786,23 +2862,17 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D28" s="59" t="s">
-        <v>12</v>
-      </c>
+      <c r="D28" s="82"/>
       <c r="E28" s="60"/>
       <c r="F28" s="61"/>
-      <c r="G28" s="59" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" s="82"/>
       <c r="H28" s="60"/>
       <c r="I28" s="61"/>
-      <c r="J28" s="59" t="s">
-        <v>12</v>
-      </c>
+      <c r="J28" s="82"/>
       <c r="K28" s="60"/>
       <c r="L28" s="61"/>
       <c r="M28" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="N28" s="60"/>
       <c r="O28" s="61"/>
@@ -2821,18 +2891,18 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D29" s="59">
-        <v>0</v>
+      <c r="D29" s="82" t="s">
+        <v>20</v>
       </c>
       <c r="E29" s="60"/>
       <c r="F29" s="61"/>
-      <c r="G29" s="59">
-        <v>0</v>
+      <c r="G29" s="82" t="s">
+        <v>14</v>
       </c>
       <c r="H29" s="60"/>
       <c r="I29" s="61"/>
-      <c r="J29" s="59">
-        <v>0</v>
+      <c r="J29" s="82" t="s">
+        <v>22</v>
       </c>
       <c r="K29" s="60"/>
       <c r="L29" s="61"/>
@@ -2843,7 +2913,7 @@
       <c r="N29" s="60"/>
       <c r="O29" s="61"/>
       <c r="P29" s="48" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Q29" s="48"/>
       <c r="R29" s="20"/>
@@ -2859,18 +2929,18 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D30" s="59">
-        <v>0</v>
+      <c r="D30" s="82" t="s">
+        <v>24</v>
       </c>
       <c r="E30" s="60"/>
       <c r="F30" s="61"/>
-      <c r="G30" s="59">
-        <v>0</v>
+      <c r="G30" s="82" t="s">
+        <v>35</v>
       </c>
       <c r="H30" s="60"/>
       <c r="I30" s="61"/>
-      <c r="J30" s="59">
-        <v>0</v>
+      <c r="J30" s="82" t="s">
+        <v>15</v>
       </c>
       <c r="K30" s="60"/>
       <c r="L30" s="61"/>
@@ -2881,7 +2951,7 @@
       <c r="N30" s="60"/>
       <c r="O30" s="61"/>
       <c r="P30" s="48" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Q30" s="48"/>
       <c r="R30" s="20"/>
@@ -2897,18 +2967,18 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D31" s="59">
-        <v>0</v>
+      <c r="D31" s="82" t="s">
+        <v>24</v>
       </c>
       <c r="E31" s="60"/>
       <c r="F31" s="61"/>
-      <c r="G31" s="59">
-        <v>0</v>
+      <c r="G31" s="82" t="s">
+        <v>14</v>
       </c>
       <c r="H31" s="60"/>
       <c r="I31" s="61"/>
-      <c r="J31" s="59">
-        <v>0</v>
+      <c r="J31" s="82" t="s">
+        <v>31</v>
       </c>
       <c r="K31" s="60"/>
       <c r="L31" s="61"/>
@@ -2933,18 +3003,18 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D32" s="59">
-        <v>0</v>
+      <c r="D32" s="82" t="s">
+        <v>17</v>
       </c>
       <c r="E32" s="60"/>
       <c r="F32" s="61"/>
-      <c r="G32" s="59">
-        <v>0</v>
+      <c r="G32" s="82" t="s">
+        <v>34</v>
       </c>
       <c r="H32" s="60"/>
       <c r="I32" s="61"/>
-      <c r="J32" s="59">
-        <v>0</v>
+      <c r="J32" s="82" t="s">
+        <v>15</v>
       </c>
       <c r="K32" s="60"/>
       <c r="L32" s="61"/>
@@ -2955,7 +3025,7 @@
       <c r="N32" s="60"/>
       <c r="O32" s="61"/>
       <c r="P32" s="48" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Q32" s="48"/>
       <c r="R32" s="20"/>
@@ -2971,18 +3041,18 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D33" s="59">
-        <v>0</v>
+      <c r="D33" s="82" t="s">
+        <v>20</v>
       </c>
       <c r="E33" s="60"/>
       <c r="F33" s="61"/>
-      <c r="G33" s="59">
-        <v>0</v>
+      <c r="G33" s="82" t="s">
+        <v>14</v>
       </c>
       <c r="H33" s="60"/>
       <c r="I33" s="61"/>
-      <c r="J33" s="59">
-        <v>0</v>
+      <c r="J33" s="82" t="s">
+        <v>15</v>
       </c>
       <c r="K33" s="60"/>
       <c r="L33" s="61"/>
@@ -2993,7 +3063,7 @@
       <c r="N33" s="60"/>
       <c r="O33" s="61"/>
       <c r="P33" s="48" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Q33" s="48"/>
       <c r="R33" s="20"/>
@@ -3009,32 +3079,26 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D34" s="59" t="s">
-        <v>12</v>
-      </c>
+      <c r="D34" s="82"/>
       <c r="E34" s="60"/>
       <c r="F34" s="61"/>
-      <c r="G34" s="59" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" s="82"/>
       <c r="H34" s="60"/>
       <c r="I34" s="61"/>
-      <c r="J34" s="59" t="s">
-        <v>12</v>
-      </c>
+      <c r="J34" s="82"/>
       <c r="K34" s="60"/>
       <c r="L34" s="61"/>
       <c r="M34" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="N34" s="60"/>
       <c r="O34" s="61"/>
       <c r="P34" s="48" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Q34" s="48"/>
       <c r="R34" s="38" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="S34" s="16"/>
       <c r="T34" s="17"/>
@@ -3048,30 +3112,24 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D35" s="59" t="s">
-        <v>12</v>
-      </c>
+      <c r="D35" s="83"/>
       <c r="E35" s="60"/>
       <c r="F35" s="61"/>
-      <c r="G35" s="59" t="s">
-        <v>12</v>
-      </c>
+      <c r="G35" s="83"/>
       <c r="H35" s="60"/>
       <c r="I35" s="61"/>
-      <c r="J35" s="59" t="s">
-        <v>12</v>
-      </c>
+      <c r="J35" s="83"/>
       <c r="K35" s="60"/>
       <c r="L35" s="61"/>
       <c r="M35" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="N35" s="60"/>
       <c r="O35" s="61"/>
       <c r="P35" s="48"/>
       <c r="Q35" s="48"/>
       <c r="R35" s="38" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="S35" s="16"/>
       <c r="T35" s="17"/>
@@ -3085,18 +3143,18 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D36" s="59">
-        <v>0</v>
+      <c r="D36" s="83" t="s">
+        <v>17</v>
       </c>
       <c r="E36" s="60"/>
       <c r="F36" s="61"/>
-      <c r="G36" s="59">
-        <v>0</v>
+      <c r="G36" s="83" t="s">
+        <v>34</v>
       </c>
       <c r="H36" s="60"/>
       <c r="I36" s="61"/>
-      <c r="J36" s="59">
-        <v>0</v>
+      <c r="J36" s="83" t="s">
+        <v>15</v>
       </c>
       <c r="K36" s="60"/>
       <c r="L36" s="61"/>
@@ -3107,11 +3165,11 @@
       <c r="N36" s="60"/>
       <c r="O36" s="61"/>
       <c r="P36" s="48" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Q36" s="48"/>
       <c r="R36" s="38" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="S36" s="16"/>
       <c r="T36" s="17"/>
@@ -3125,18 +3183,18 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D37" s="59">
-        <v>0</v>
+      <c r="D37" s="83" t="s">
+        <v>30</v>
       </c>
       <c r="E37" s="60"/>
       <c r="F37" s="61"/>
-      <c r="G37" s="59">
-        <v>0</v>
+      <c r="G37" s="83" t="s">
+        <v>36</v>
       </c>
       <c r="H37" s="60"/>
       <c r="I37" s="61"/>
-      <c r="J37" s="59">
-        <v>0</v>
+      <c r="J37" s="83" t="s">
+        <v>15</v>
       </c>
       <c r="K37" s="60"/>
       <c r="L37" s="61"/>
@@ -3149,42 +3207,42 @@
       <c r="P37" s="48"/>
       <c r="Q37" s="48"/>
       <c r="R37" s="38" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="S37" s="16"/>
       <c r="T37" s="17"/>
     </row>
     <row r="38" ht="21.75" customHeight="1">
       <c r="B38" s="19" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D38" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E38" s="60"/>
       <c r="F38" s="61"/>
       <c r="G38" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H38" s="60"/>
       <c r="I38" s="61"/>
       <c r="J38" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="K38" s="60"/>
       <c r="L38" s="61"/>
       <c r="M38" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="N38" s="60"/>
       <c r="O38" s="61"/>
       <c r="P38" s="48"/>
       <c r="Q38" s="48"/>
       <c r="R38" s="38" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="S38" s="16"/>
       <c r="T38" s="17"/>
@@ -3194,7 +3252,7 @@
       <c r="C39" s="24"/>
       <c r="D39" s="25"/>
       <c r="E39" s="40" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F39" s="25"/>
       <c r="G39" s="25"/>
@@ -3202,7 +3260,7 @@
       <c r="I39" s="25"/>
       <c r="J39" s="25"/>
       <c r="K39" s="26" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="L39" s="25"/>
       <c r="M39" s="64">
@@ -3212,7 +3270,7 @@
       <c r="N39" s="64"/>
       <c r="O39" s="64"/>
       <c r="P39" s="37" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Q39" s="37"/>
       <c r="R39" s="27"/>
@@ -3291,7 +3349,7 @@
     </row>
     <row r="44" ht="27" customHeight="1" s="31" customFormat="1">
       <c r="B44" s="67" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="C44" s="68"/>
       <c r="D44" s="70">
@@ -3300,7 +3358,7 @@
       <c r="E44" s="70"/>
       <c r="F44" s="70"/>
       <c r="G44" s="67" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="H44" s="71"/>
       <c r="I44" s="68"/>
@@ -3312,7 +3370,7 @@
       <c r="L44" s="70"/>
       <c r="M44" s="73"/>
       <c r="N44" s="67" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="O44" s="71"/>
       <c r="P44" s="62" t="str">
@@ -17132,21 +17190,12 @@
   </sheetData>
   <mergeCells>
     <mergeCell ref="M11:O11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="D11:F11"/>
     <mergeCell ref="K48:L48"/>
     <mergeCell ref="D44:F44"/>
     <mergeCell ref="G44:I44"/>
     <mergeCell ref="J44:M44"/>
     <mergeCell ref="N44:O44"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:L36"/>
     <mergeCell ref="M36:O36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:L37"/>
     <mergeCell ref="P44:Q44"/>
     <mergeCell ref="D38:F38"/>
     <mergeCell ref="G38:I38"/>
@@ -17156,121 +17205,130 @@
     <mergeCell ref="B42:R42"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="M37:O37"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:L33"/>
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="G34:I34"/>
     <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:O34"/>
     <mergeCell ref="D35:F35"/>
     <mergeCell ref="G35:I35"/>
     <mergeCell ref="J35:L35"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:L37"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -17379,39 +17437,39 @@
     </row>
     <row r="7" ht="16.5" customHeight="1">
       <c r="B7" s="11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E7" s="57"/>
       <c r="F7" s="58"/>
       <c r="G7" s="56" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H7" s="57"/>
       <c r="I7" s="58"/>
       <c r="J7" s="56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K7" s="57"/>
       <c r="L7" s="58"/>
       <c r="M7" s="56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N7" s="57"/>
       <c r="O7" s="58"/>
       <c r="P7" s="35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q7" s="35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R7" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S7" s="13"/>
     </row>
@@ -17446,11 +17504,11 @@
       <c r="N8" s="75"/>
       <c r="O8" s="76"/>
       <c r="P8" s="47" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Q8" s="47"/>
       <c r="R8" s="46" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="S8" s="16"/>
       <c r="T8" s="17"/>
@@ -17488,7 +17546,7 @@
       <c r="P9" s="48"/>
       <c r="Q9" s="48"/>
       <c r="R9" s="38" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="S9" s="16"/>
       <c r="T9" s="17"/>
@@ -17526,7 +17584,7 @@
       <c r="P10" s="48"/>
       <c r="Q10" s="48"/>
       <c r="R10" s="50" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="S10" s="16"/>
       <c r="T10" s="17"/>
@@ -17541,31 +17599,31 @@
         <v>7</v>
       </c>
       <c r="D11" s="59" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="E11" s="60"/>
       <c r="F11" s="61"/>
       <c r="G11" s="59" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="H11" s="60"/>
       <c r="I11" s="61"/>
       <c r="J11" s="59" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="K11" s="60"/>
       <c r="L11" s="61"/>
       <c r="M11" s="59" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="N11" s="60"/>
       <c r="O11" s="61"/>
       <c r="P11" s="48" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Q11" s="48"/>
       <c r="R11" s="38" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="S11" s="16"/>
       <c r="T11" s="17"/>
@@ -17580,29 +17638,29 @@
         <v>1</v>
       </c>
       <c r="D12" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E12" s="60"/>
       <c r="F12" s="61"/>
       <c r="G12" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H12" s="60"/>
       <c r="I12" s="61"/>
       <c r="J12" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="K12" s="60"/>
       <c r="L12" s="61"/>
       <c r="M12" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="N12" s="60"/>
       <c r="O12" s="61"/>
       <c r="P12" s="48"/>
       <c r="Q12" s="48"/>
       <c r="R12" s="38" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="S12" s="22"/>
       <c r="T12" s="17"/>
@@ -17710,7 +17768,7 @@
       <c r="N15" s="60"/>
       <c r="O15" s="61"/>
       <c r="P15" s="48" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="48"/>
       <c r="R15" s="20"/>
@@ -17799,22 +17857,22 @@
         <v>7</v>
       </c>
       <c r="D18" s="59" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="E18" s="60"/>
       <c r="F18" s="61"/>
       <c r="G18" s="59" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="H18" s="60"/>
       <c r="I18" s="61"/>
       <c r="J18" s="59" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="K18" s="60"/>
       <c r="L18" s="61"/>
       <c r="M18" s="59" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="N18" s="60"/>
       <c r="O18" s="61"/>
@@ -17834,22 +17892,22 @@
         <v>1</v>
       </c>
       <c r="D19" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E19" s="60"/>
       <c r="F19" s="61"/>
       <c r="G19" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H19" s="60"/>
       <c r="I19" s="61"/>
       <c r="J19" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="K19" s="60"/>
       <c r="L19" s="61"/>
       <c r="M19" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="N19" s="60"/>
       <c r="O19" s="61"/>
@@ -17890,7 +17948,7 @@
       <c r="N20" s="60"/>
       <c r="O20" s="61"/>
       <c r="P20" s="49" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="Q20" s="48"/>
       <c r="R20" s="38"/>
@@ -17930,7 +17988,7 @@
       <c r="P21" s="48"/>
       <c r="Q21" s="48"/>
       <c r="R21" s="38" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="S21" s="16"/>
       <c r="T21" s="17"/>
@@ -18002,7 +18060,7 @@
       <c r="N23" s="60"/>
       <c r="O23" s="61"/>
       <c r="P23" s="49" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="Q23" s="48"/>
       <c r="R23" s="20"/>
@@ -18042,7 +18100,7 @@
       <c r="P24" s="48"/>
       <c r="Q24" s="48"/>
       <c r="R24" s="38" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="S24" s="16"/>
       <c r="T24" s="17"/>
@@ -18057,27 +18115,27 @@
         <v>7</v>
       </c>
       <c r="D25" s="59" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="E25" s="60"/>
       <c r="F25" s="61"/>
       <c r="G25" s="59" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="H25" s="60"/>
       <c r="I25" s="61"/>
       <c r="J25" s="59" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="K25" s="60"/>
       <c r="L25" s="61"/>
       <c r="M25" s="59" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="N25" s="60"/>
       <c r="O25" s="61"/>
       <c r="P25" s="48" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Q25" s="48"/>
       <c r="R25" s="20"/>
@@ -18094,22 +18152,22 @@
         <v>1</v>
       </c>
       <c r="D26" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E26" s="60"/>
       <c r="F26" s="61"/>
       <c r="G26" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H26" s="60"/>
       <c r="I26" s="61"/>
       <c r="J26" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="K26" s="60"/>
       <c r="L26" s="61"/>
       <c r="M26" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="N26" s="60"/>
       <c r="O26" s="61"/>
@@ -18237,22 +18295,22 @@
         <v>5</v>
       </c>
       <c r="D30" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E30" s="60"/>
       <c r="F30" s="61"/>
       <c r="G30" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H30" s="60"/>
       <c r="I30" s="61"/>
       <c r="J30" s="59" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="K30" s="60"/>
       <c r="L30" s="61"/>
       <c r="M30" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="N30" s="60"/>
       <c r="O30" s="61"/>
@@ -18272,22 +18330,22 @@
         <v>6</v>
       </c>
       <c r="D31" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E31" s="60"/>
       <c r="F31" s="61"/>
       <c r="G31" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H31" s="60"/>
       <c r="I31" s="61"/>
       <c r="J31" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="K31" s="60"/>
       <c r="L31" s="61"/>
       <c r="M31" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="N31" s="60"/>
       <c r="O31" s="61"/>
@@ -18307,27 +18365,27 @@
         <v>7</v>
       </c>
       <c r="D32" s="59" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="E32" s="60"/>
       <c r="F32" s="61"/>
       <c r="G32" s="59" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="H32" s="60"/>
       <c r="I32" s="61"/>
       <c r="J32" s="59" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="K32" s="60"/>
       <c r="L32" s="61"/>
       <c r="M32" s="59" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="N32" s="60"/>
       <c r="O32" s="61"/>
       <c r="P32" s="48" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Q32" s="48"/>
       <c r="R32" s="20"/>
@@ -18344,22 +18402,22 @@
         <v>1</v>
       </c>
       <c r="D33" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E33" s="60"/>
       <c r="F33" s="61"/>
       <c r="G33" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H33" s="60"/>
       <c r="I33" s="61"/>
       <c r="J33" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="K33" s="60"/>
       <c r="L33" s="61"/>
       <c r="M33" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="N33" s="60"/>
       <c r="O33" s="61"/>
@@ -18438,7 +18496,7 @@
       <c r="P35" s="48"/>
       <c r="Q35" s="48"/>
       <c r="R35" s="43" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="S35" s="16"/>
       <c r="T35" s="17"/>
@@ -18474,7 +18532,7 @@
       <c r="N36" s="60"/>
       <c r="O36" s="61"/>
       <c r="P36" s="49" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="Q36" s="48"/>
       <c r="R36" s="20"/>
@@ -18512,11 +18570,11 @@
       <c r="N37" s="60"/>
       <c r="O37" s="61"/>
       <c r="P37" s="49" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="Q37" s="48"/>
       <c r="R37" s="38" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="S37" s="16"/>
       <c r="T37" s="17"/>
@@ -18552,11 +18610,11 @@
       <c r="N38" s="60"/>
       <c r="O38" s="61"/>
       <c r="P38" s="49" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="Q38" s="48"/>
       <c r="R38" s="38" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="S38" s="16"/>
       <c r="T38" s="17"/>
@@ -18566,7 +18624,7 @@
       <c r="C39" s="24"/>
       <c r="D39" s="25"/>
       <c r="E39" s="40" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="F39" s="25"/>
       <c r="G39" s="25"/>
@@ -18574,7 +18632,7 @@
       <c r="I39" s="25"/>
       <c r="J39" s="25"/>
       <c r="K39" s="26" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="L39" s="25"/>
       <c r="M39" s="64">
@@ -18584,7 +18642,7 @@
       <c r="N39" s="64"/>
       <c r="O39" s="64"/>
       <c r="P39" s="37" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Q39" s="37"/>
       <c r="R39" s="27"/>
@@ -18663,7 +18721,7 @@
     </row>
     <row r="44" ht="27" customHeight="1" s="31" customFormat="1">
       <c r="B44" s="67" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="C44" s="68"/>
       <c r="D44" s="70">
@@ -18672,7 +18730,7 @@
       <c r="E44" s="70"/>
       <c r="F44" s="70"/>
       <c r="G44" s="67" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="H44" s="71"/>
       <c r="I44" s="68"/>
@@ -18684,7 +18742,7 @@
       <c r="L44" s="70"/>
       <c r="M44" s="73"/>
       <c r="N44" s="67" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="O44" s="71"/>
       <c r="P44" s="62" t="str">
@@ -32753,39 +32811,39 @@
     </row>
     <row r="7" ht="16.5" customHeight="1">
       <c r="B7" s="11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E7" s="57"/>
       <c r="F7" s="58"/>
       <c r="G7" s="56" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H7" s="57"/>
       <c r="I7" s="58"/>
       <c r="J7" s="56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K7" s="57"/>
       <c r="L7" s="58"/>
       <c r="M7" s="56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N7" s="57"/>
       <c r="O7" s="58"/>
       <c r="P7" s="35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q7" s="35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R7" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S7" s="13"/>
     </row>
@@ -32799,29 +32857,29 @@
         <v>7</v>
       </c>
       <c r="D8" s="59" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="E8" s="60"/>
       <c r="F8" s="61"/>
       <c r="G8" s="59" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="H8" s="60"/>
       <c r="I8" s="61"/>
       <c r="J8" s="59" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="K8" s="60"/>
       <c r="L8" s="61"/>
       <c r="M8" s="59" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="N8" s="60"/>
       <c r="O8" s="61"/>
       <c r="P8" s="47"/>
       <c r="Q8" s="47"/>
       <c r="R8" s="44" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="S8" s="16"/>
       <c r="T8" s="17"/>
@@ -32838,29 +32896,29 @@
         <v>1</v>
       </c>
       <c r="D9" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E9" s="60"/>
       <c r="F9" s="61"/>
       <c r="G9" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H9" s="60"/>
       <c r="I9" s="61"/>
       <c r="J9" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="K9" s="60"/>
       <c r="L9" s="61"/>
       <c r="M9" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="N9" s="60"/>
       <c r="O9" s="61"/>
       <c r="P9" s="48"/>
       <c r="Q9" s="48"/>
       <c r="R9" s="43" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="S9" s="16"/>
       <c r="T9" s="17"/>
@@ -32934,7 +32992,7 @@
       <c r="N11" s="60"/>
       <c r="O11" s="61"/>
       <c r="P11" s="48" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Q11" s="48"/>
       <c r="R11" s="20"/>
@@ -32973,7 +33031,7 @@
       <c r="N12" s="60"/>
       <c r="O12" s="61"/>
       <c r="P12" s="49" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="Q12" s="48"/>
       <c r="R12" s="21"/>
@@ -33049,7 +33107,7 @@
       <c r="N14" s="60"/>
       <c r="O14" s="61"/>
       <c r="P14" s="48" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Q14" s="48"/>
       <c r="R14" s="20"/>
@@ -33067,31 +33125,31 @@
         <v>7</v>
       </c>
       <c r="D15" s="59" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="E15" s="60"/>
       <c r="F15" s="61"/>
       <c r="G15" s="59" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="H15" s="60"/>
       <c r="I15" s="61"/>
       <c r="J15" s="59" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="K15" s="60"/>
       <c r="L15" s="61"/>
       <c r="M15" s="59" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="N15" s="60"/>
       <c r="O15" s="61"/>
       <c r="P15" s="48" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="48"/>
       <c r="R15" s="38" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="S15" s="16"/>
       <c r="T15" s="17"/>
@@ -33107,29 +33165,29 @@
         <v>1</v>
       </c>
       <c r="D16" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E16" s="60"/>
       <c r="F16" s="61"/>
       <c r="G16" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H16" s="60"/>
       <c r="I16" s="61"/>
       <c r="J16" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="K16" s="60"/>
       <c r="L16" s="61"/>
       <c r="M16" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="N16" s="60"/>
       <c r="O16" s="61"/>
       <c r="P16" s="48"/>
       <c r="Q16" s="48"/>
       <c r="R16" s="38" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="S16" s="16"/>
       <c r="T16" s="17"/>
@@ -33145,29 +33203,29 @@
         <v>2</v>
       </c>
       <c r="D17" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E17" s="60"/>
       <c r="F17" s="61"/>
       <c r="G17" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H17" s="60"/>
       <c r="I17" s="61"/>
       <c r="J17" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="K17" s="60"/>
       <c r="L17" s="61"/>
       <c r="M17" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="N17" s="60"/>
       <c r="O17" s="61"/>
       <c r="P17" s="48"/>
       <c r="Q17" s="48"/>
       <c r="R17" s="38" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="S17" s="16"/>
       <c r="T17" s="17"/>
@@ -33183,33 +33241,33 @@
         <v>3</v>
       </c>
       <c r="D18" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E18" s="60"/>
       <c r="F18" s="61"/>
       <c r="G18" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H18" s="60"/>
       <c r="I18" s="61"/>
       <c r="J18" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="K18" s="60"/>
       <c r="L18" s="61"/>
       <c r="M18" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="N18" s="60"/>
       <c r="O18" s="61"/>
       <c r="P18" s="48" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="48" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="R18" s="38" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="S18" s="16"/>
       <c r="T18" s="17"/>
@@ -33225,31 +33283,31 @@
         <v>4</v>
       </c>
       <c r="D19" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E19" s="60"/>
       <c r="F19" s="61"/>
       <c r="G19" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H19" s="60"/>
       <c r="I19" s="61"/>
       <c r="J19" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="K19" s="60"/>
       <c r="L19" s="61"/>
       <c r="M19" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="N19" s="60"/>
       <c r="O19" s="61"/>
       <c r="P19" s="48" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Q19" s="48"/>
       <c r="R19" s="38" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="S19" s="16"/>
       <c r="T19" s="17"/>
@@ -33265,29 +33323,29 @@
         <v>5</v>
       </c>
       <c r="D20" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E20" s="60"/>
       <c r="F20" s="61"/>
       <c r="G20" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H20" s="60"/>
       <c r="I20" s="61"/>
       <c r="J20" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="K20" s="60"/>
       <c r="L20" s="61"/>
       <c r="M20" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="N20" s="60"/>
       <c r="O20" s="61"/>
       <c r="P20" s="48"/>
       <c r="Q20" s="48"/>
       <c r="R20" s="38" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="S20" s="16"/>
       <c r="T20" s="17"/>
@@ -33303,29 +33361,29 @@
         <v>6</v>
       </c>
       <c r="D21" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E21" s="60"/>
       <c r="F21" s="61"/>
       <c r="G21" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H21" s="60"/>
       <c r="I21" s="61"/>
       <c r="J21" s="59" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="K21" s="60"/>
       <c r="L21" s="61"/>
       <c r="M21" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="N21" s="60"/>
       <c r="O21" s="61"/>
       <c r="P21" s="48"/>
       <c r="Q21" s="48"/>
       <c r="R21" s="38" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="S21" s="16"/>
       <c r="T21" s="17"/>
@@ -33341,29 +33399,29 @@
         <v>7</v>
       </c>
       <c r="D22" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E22" s="60"/>
       <c r="F22" s="61"/>
       <c r="G22" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H22" s="60"/>
       <c r="I22" s="61"/>
       <c r="J22" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="K22" s="60"/>
       <c r="L22" s="61"/>
       <c r="M22" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="N22" s="60"/>
       <c r="O22" s="61"/>
       <c r="P22" s="48"/>
       <c r="Q22" s="48"/>
       <c r="R22" s="38" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="S22" s="16"/>
       <c r="T22" s="17"/>
@@ -33379,32 +33437,32 @@
         <v>1</v>
       </c>
       <c r="D23" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E23" s="60"/>
       <c r="F23" s="61"/>
       <c r="G23" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H23" s="60"/>
       <c r="I23" s="61"/>
       <c r="J23" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="K23" s="60"/>
       <c r="L23" s="61"/>
       <c r="M23" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="N23" s="60"/>
       <c r="O23" s="61"/>
       <c r="P23" s="48"/>
       <c r="Q23" s="48"/>
       <c r="R23" s="38" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="S23" s="16" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="T23" s="17"/>
       <c r="U23" s="18"/>
@@ -33442,7 +33500,7 @@
       <c r="P24" s="48"/>
       <c r="Q24" s="48"/>
       <c r="R24" s="38" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="S24" s="16"/>
       <c r="T24" s="17"/>
@@ -33479,11 +33537,11 @@
       <c r="N25" s="60"/>
       <c r="O25" s="61"/>
       <c r="P25" s="49" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="Q25" s="48"/>
       <c r="R25" s="38" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="S25" s="16"/>
       <c r="T25" s="17"/>
@@ -33520,11 +33578,11 @@
       <c r="N26" s="60"/>
       <c r="O26" s="61"/>
       <c r="P26" s="48" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Q26" s="48"/>
       <c r="R26" s="38" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="S26" s="16"/>
       <c r="T26" s="17"/>
@@ -33598,7 +33656,7 @@
       <c r="N28" s="60"/>
       <c r="O28" s="61"/>
       <c r="P28" s="48" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Q28" s="48"/>
       <c r="R28" s="20"/>
@@ -33616,22 +33674,22 @@
         <v>7</v>
       </c>
       <c r="D29" s="59" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="E29" s="60"/>
       <c r="F29" s="61"/>
       <c r="G29" s="59" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="H29" s="60"/>
       <c r="I29" s="61"/>
       <c r="J29" s="59" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="K29" s="60"/>
       <c r="L29" s="61"/>
       <c r="M29" s="59" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="N29" s="60"/>
       <c r="O29" s="61"/>
@@ -33652,27 +33710,27 @@
         <v>1</v>
       </c>
       <c r="D30" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E30" s="60"/>
       <c r="F30" s="61"/>
       <c r="G30" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H30" s="60"/>
       <c r="I30" s="61"/>
       <c r="J30" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="K30" s="60"/>
       <c r="L30" s="61"/>
       <c r="M30" s="59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="N30" s="60"/>
       <c r="O30" s="61"/>
       <c r="P30" s="48" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Q30" s="48"/>
       <c r="R30" s="20"/>
@@ -33785,7 +33843,7 @@
       <c r="N33" s="60"/>
       <c r="O33" s="61"/>
       <c r="P33" s="48" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Q33" s="48"/>
       <c r="R33" s="20"/>
@@ -33824,7 +33882,7 @@
       <c r="N34" s="60"/>
       <c r="O34" s="61"/>
       <c r="P34" s="48" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Q34" s="48"/>
       <c r="R34" s="20"/>
@@ -33879,27 +33937,27 @@
         <v>7</v>
       </c>
       <c r="D36" s="59" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="E36" s="60"/>
       <c r="F36" s="61"/>
       <c r="G36" s="59" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="H36" s="60"/>
       <c r="I36" s="61"/>
       <c r="J36" s="59" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="K36" s="60"/>
       <c r="L36" s="61"/>
       <c r="M36" s="59" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="N36" s="60"/>
       <c r="O36" s="61"/>
       <c r="P36" s="48" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Q36" s="48"/>
       <c r="R36" s="20"/>
@@ -33917,27 +33975,27 @@
         <v>1</v>
       </c>
       <c r="D37" s="59" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="E37" s="60"/>
       <c r="F37" s="61"/>
       <c r="G37" s="59" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="H37" s="60"/>
       <c r="I37" s="61"/>
       <c r="J37" s="59" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="K37" s="60"/>
       <c r="L37" s="61"/>
       <c r="M37" s="59" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="N37" s="60"/>
       <c r="O37" s="61"/>
       <c r="P37" s="49" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="Q37" s="48"/>
       <c r="R37" s="20"/>
@@ -33987,7 +34045,7 @@
       <c r="C39" s="24"/>
       <c r="D39" s="25"/>
       <c r="E39" s="40" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F39" s="25"/>
       <c r="G39" s="25"/>
@@ -33995,7 +34053,7 @@
       <c r="I39" s="25"/>
       <c r="J39" s="25"/>
       <c r="K39" s="26" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="L39" s="25"/>
       <c r="M39" s="64">
@@ -34005,7 +34063,7 @@
       <c r="N39" s="64"/>
       <c r="O39" s="64"/>
       <c r="P39" s="37" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Q39" s="37"/>
       <c r="R39" s="27"/>
@@ -34085,7 +34143,7 @@
     </row>
     <row r="44" ht="27" customHeight="1" s="31" customFormat="1">
       <c r="B44" s="67" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="C44" s="68"/>
       <c r="D44" s="70">
@@ -34094,7 +34152,7 @@
       <c r="E44" s="70"/>
       <c r="F44" s="70"/>
       <c r="G44" s="67" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="H44" s="71"/>
       <c r="I44" s="68"/>
@@ -34106,7 +34164,7 @@
       <c r="L44" s="70"/>
       <c r="M44" s="73"/>
       <c r="N44" s="67" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="O44" s="71"/>
       <c r="P44" s="62" t="str">
